--- a/CIVE 625/Lab 1/Lab1.xlsx
+++ b/CIVE 625/Lab 1/Lab1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adunw\OneDrive\Documents\GitHub\EcoHydro\CIVE 625\Lab 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36E86EF6-E7AE-4524-90F4-ACD342AF6EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB5A553-E98D-440D-80E2-F36A357BE732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="1860" yWindow="1860" windowWidth="19200" windowHeight="11210" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Forest" sheetId="7" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="135">
   <si>
     <t>(Local)</t>
   </si>
@@ -1449,9 +1449,6 @@
   </si>
   <si>
     <t>Zm</t>
-  </si>
-  <si>
-    <t>Zm'</t>
   </si>
   <si>
     <t>Total Hour</t>
@@ -23534,13 +23531,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>36</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -23588,15 +23585,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>35</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -23650,7 +23647,7 @@
           <xdr:col>41</xdr:col>
           <xdr:colOff>400050</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -23796,13 +23793,13 @@
           <xdr:col>37</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -24071,13 +24068,13 @@
           <xdr:col>37</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -24231,7 +24228,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>40</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -25470,13 +25467,13 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>36</xdr:col>
-          <xdr:colOff>542925</xdr:colOff>
+          <xdr:colOff>546100</xdr:colOff>
           <xdr:row>30</xdr:row>
-          <xdr:rowOff>9525</xdr:rowOff>
+          <xdr:rowOff>12700</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>41</xdr:col>
-          <xdr:colOff>200025</xdr:colOff>
+          <xdr:colOff>203200</xdr:colOff>
           <xdr:row>32</xdr:row>
           <xdr:rowOff>133350</xdr:rowOff>
         </xdr:to>
@@ -25524,15 +25521,15 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>29</xdr:col>
-          <xdr:colOff>485775</xdr:colOff>
+          <xdr:colOff>488950</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>35</xdr:col>
           <xdr:colOff>190500</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>85725</xdr:rowOff>
+          <xdr:rowOff>88900</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25586,7 +25583,7 @@
           <xdr:col>41</xdr:col>
           <xdr:colOff>400050</xdr:colOff>
           <xdr:row>29</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -25732,13 +25729,13 @@
           <xdr:col>37</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26007,13 +26004,13 @@
           <xdr:col>37</xdr:col>
           <xdr:colOff>57150</xdr:colOff>
           <xdr:row>9</xdr:row>
-          <xdr:rowOff>161925</xdr:rowOff>
+          <xdr:rowOff>165100</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>43</xdr:col>
           <xdr:colOff>38100</xdr:colOff>
           <xdr:row>11</xdr:row>
-          <xdr:rowOff>28575</xdr:rowOff>
+          <xdr:rowOff>31750</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -26167,7 +26164,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>40</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
@@ -26674,43 +26671,43 @@
       <selection sqref="A1:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7265625" customWidth="1"/>
     <col min="24" max="24" width="9" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="27" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.5703125" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="27" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.54296875" customWidth="1"/>
+    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" customWidth="1"/>
-    <col min="34" max="36" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.453125" customWidth="1"/>
+    <col min="34" max="36" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -26719,7 +26716,7 @@
       <c r="G1"/>
       <c r="H1"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -26728,7 +26725,7 @@
       <c r="G2"/>
       <c r="H2"/>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -26737,7 +26734,7 @@
       <c r="G3"/>
       <c r="H3"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -26746,7 +26743,7 @@
       <c r="G4"/>
       <c r="H4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B5"/>
       <c r="C5"/>
       <c r="D5"/>
@@ -26755,7 +26752,7 @@
       <c r="G5"/>
       <c r="H5"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
@@ -26764,7 +26761,7 @@
       <c r="G6"/>
       <c r="H6"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -26773,7 +26770,7 @@
       <c r="G7"/>
       <c r="H7"/>
     </row>
-    <row r="8" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
@@ -26785,27 +26782,27 @@
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C9" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="H9" s="74" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="76" t="s">
         <v>0</v>
       </c>
@@ -26831,33 +26828,33 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" s="192" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:36" s="192" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="186">
         <v>0.5</v>
       </c>
@@ -26911,7 +26908,7 @@
       <c r="AI12"/>
       <c r="AJ12"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="143">
         <v>1.5</v>
       </c>
@@ -26937,7 +26934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="143">
         <v>2.5</v>
       </c>
@@ -26963,7 +26960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="143">
         <v>3.5</v>
       </c>
@@ -26989,7 +26986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="143">
         <v>4.5</v>
       </c>
@@ -27015,7 +27012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="143">
         <v>5.5</v>
       </c>
@@ -27041,7 +27038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="143">
         <v>6.5</v>
       </c>
@@ -27067,7 +27064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="143">
         <v>7.5</v>
       </c>
@@ -27093,7 +27090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="143">
         <v>8.5</v>
       </c>
@@ -27119,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="143">
         <v>9.5</v>
       </c>
@@ -27145,7 +27142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="143">
         <v>10.5</v>
       </c>
@@ -27171,7 +27168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="143">
         <v>11.5</v>
       </c>
@@ -27197,7 +27194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="143">
         <v>12.5</v>
       </c>
@@ -27223,7 +27220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="143">
         <v>13.5</v>
       </c>
@@ -27249,7 +27246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="143">
         <v>14.5</v>
       </c>
@@ -27275,7 +27272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="143">
         <v>15.5</v>
       </c>
@@ -27301,7 +27298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="143">
         <v>16.5</v>
       </c>
@@ -27327,7 +27324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="143">
         <v>17.5</v>
       </c>
@@ -27353,7 +27350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="143">
         <v>18.5</v>
       </c>
@@ -27379,7 +27376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="143">
         <v>19.5</v>
       </c>
@@ -27405,7 +27402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="143">
         <v>20.5</v>
       </c>
@@ -27431,7 +27428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="143">
         <v>21.5</v>
       </c>
@@ -27457,7 +27454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="143">
         <v>22.5</v>
       </c>
@@ -27483,7 +27480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="143">
         <v>23.5</v>
       </c>
@@ -27509,7 +27506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="145">
         <v>24.5</v>
       </c>
@@ -27535,7 +27532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="145">
         <v>25.5</v>
       </c>
@@ -27561,7 +27558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="145">
         <v>26.5</v>
       </c>
@@ -27587,7 +27584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="145">
         <v>27.5</v>
       </c>
@@ -27613,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="145">
         <v>28.5</v>
       </c>
@@ -27639,7 +27636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="145">
         <v>29.5</v>
       </c>
@@ -27665,7 +27662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="145">
         <v>30.5</v>
       </c>
@@ -27691,7 +27688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="145">
         <v>31.5</v>
       </c>
@@ -27717,7 +27714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="145">
         <v>32.5</v>
       </c>
@@ -27743,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="145">
         <v>33.5</v>
       </c>
@@ -27769,7 +27766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="145">
         <v>34.5</v>
       </c>
@@ -27795,7 +27792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="145">
         <v>35.5</v>
       </c>
@@ -27821,7 +27818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="145">
         <v>36.5</v>
       </c>
@@ -27847,7 +27844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="145">
         <v>37.5</v>
       </c>
@@ -27873,7 +27870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="145">
         <v>38.5</v>
       </c>
@@ -27899,7 +27896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="145">
         <v>39.5</v>
       </c>
@@ -27925,7 +27922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="145">
         <v>40.5</v>
       </c>
@@ -27951,7 +27948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="145">
         <v>41.5</v>
       </c>
@@ -27977,7 +27974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="145">
         <v>42.5</v>
       </c>
@@ -28003,7 +28000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="145">
         <v>43.5</v>
       </c>
@@ -28029,7 +28026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="145">
         <v>44.5</v>
       </c>
@@ -28055,7 +28052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="145">
         <v>45.5</v>
       </c>
@@ -28081,7 +28078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="145">
         <v>46.5</v>
       </c>
@@ -28107,7 +28104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="145">
         <v>47.5</v>
       </c>
@@ -28133,7 +28130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="146">
         <v>48.5</v>
       </c>
@@ -28159,7 +28156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="146">
         <v>49.5</v>
       </c>
@@ -28185,7 +28182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="146">
         <v>50.5</v>
       </c>
@@ -28211,7 +28208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="146">
         <v>51.5</v>
       </c>
@@ -28237,7 +28234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="146">
         <v>52.5</v>
       </c>
@@ -28263,7 +28260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" s="146">
         <v>53.5</v>
       </c>
@@ -28289,7 +28286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" s="146">
         <v>54.5</v>
       </c>
@@ -28315,7 +28312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" s="146">
         <v>55.5</v>
       </c>
@@ -28341,7 +28338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" s="146">
         <v>56.5</v>
       </c>
@@ -28367,7 +28364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" s="146">
         <v>57.5</v>
       </c>
@@ -28393,7 +28390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" s="146">
         <v>58.5</v>
       </c>
@@ -28419,7 +28416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" s="146">
         <v>59.5</v>
       </c>
@@ -28445,7 +28442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" s="146">
         <v>60.5</v>
       </c>
@@ -28471,7 +28468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" s="146">
         <v>61.5</v>
       </c>
@@ -28497,7 +28494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" s="146">
         <v>62.5</v>
       </c>
@@ -28523,7 +28520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" s="146">
         <v>63.5</v>
       </c>
@@ -28549,7 +28546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" s="146">
         <v>64.5</v>
       </c>
@@ -28575,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" s="146">
         <v>65.5</v>
       </c>
@@ -28601,7 +28598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" s="146">
         <v>66.5</v>
       </c>
@@ -28627,7 +28624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" s="146">
         <v>67.5</v>
       </c>
@@ -28653,7 +28650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" s="146">
         <v>68.5</v>
       </c>
@@ -28679,7 +28676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" s="146">
         <v>69.5</v>
       </c>
@@ -28705,7 +28702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" s="146">
         <v>70.5</v>
       </c>
@@ -28731,7 +28728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" s="146">
         <v>71.5</v>
       </c>
@@ -28757,7 +28754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" s="147">
         <v>72.5</v>
       </c>
@@ -28783,7 +28780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" s="147">
         <v>73.5</v>
       </c>
@@ -28809,7 +28806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" s="147">
         <v>74.5</v>
       </c>
@@ -28835,7 +28832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" s="147">
         <v>75.5</v>
       </c>
@@ -28861,7 +28858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" s="147">
         <v>76.5</v>
       </c>
@@ -28887,7 +28884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" s="147">
         <v>77.5</v>
       </c>
@@ -28913,7 +28910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" s="147">
         <v>78.5</v>
       </c>
@@ -28939,7 +28936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" s="147">
         <v>79.5</v>
       </c>
@@ -28965,7 +28962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" s="147">
         <v>80.5</v>
       </c>
@@ -28991,7 +28988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" s="147">
         <v>81.5</v>
       </c>
@@ -29017,7 +29014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" s="147">
         <v>82.5</v>
       </c>
@@ -29043,7 +29040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" s="147">
         <v>83.5</v>
       </c>
@@ -29069,7 +29066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" s="147">
         <v>84.5</v>
       </c>
@@ -29095,7 +29092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" s="147">
         <v>85.5</v>
       </c>
@@ -29121,7 +29118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" s="147">
         <v>86.5</v>
       </c>
@@ -29147,7 +29144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" s="147">
         <v>87.5</v>
       </c>
@@ -29173,7 +29170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" s="147">
         <v>88.5</v>
       </c>
@@ -29199,7 +29196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" s="147">
         <v>89.5</v>
       </c>
@@ -29225,7 +29222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" s="147">
         <v>90.5</v>
       </c>
@@ -29251,7 +29248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" s="147">
         <v>91.5</v>
       </c>
@@ -29277,7 +29274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A104" s="147">
         <v>92.5</v>
       </c>
@@ -29303,7 +29300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A105" s="147">
         <v>93.5</v>
       </c>
@@ -29329,7 +29326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A106" s="147">
         <v>94.5</v>
       </c>
@@ -29355,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A107" s="147">
         <v>95.5</v>
       </c>
@@ -29381,7 +29378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A108" s="148">
         <v>96.5</v>
       </c>
@@ -29407,7 +29404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A109" s="148">
         <v>97.5</v>
       </c>
@@ -29433,7 +29430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A110" s="148">
         <v>98.5</v>
       </c>
@@ -29459,7 +29456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A111" s="148">
         <v>99.5</v>
       </c>
@@ -29485,7 +29482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A112" s="148">
         <v>100.5</v>
       </c>
@@ -29511,7 +29508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A113" s="148">
         <v>101.5</v>
       </c>
@@ -29537,7 +29534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A114" s="148">
         <v>102.5</v>
       </c>
@@ -29563,7 +29560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A115" s="148">
         <v>103.5</v>
       </c>
@@ -29589,7 +29586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A116" s="148">
         <v>104.5</v>
       </c>
@@ -29615,7 +29612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A117" s="148">
         <v>105.5</v>
       </c>
@@ -29641,7 +29638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A118" s="148">
         <v>106.5</v>
       </c>
@@ -29667,7 +29664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A119" s="148">
         <v>107.5</v>
       </c>
@@ -29693,7 +29690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A120" s="148">
         <v>108.5</v>
       </c>
@@ -29719,7 +29716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A121" s="148">
         <v>109.5</v>
       </c>
@@ -29745,7 +29742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A122" s="148">
         <v>110.5</v>
       </c>
@@ -29771,7 +29768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A123" s="148">
         <v>111.5</v>
       </c>
@@ -29797,7 +29794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A124" s="148">
         <v>112.5</v>
       </c>
@@ -29823,7 +29820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A125" s="148">
         <v>113.5</v>
       </c>
@@ -29849,7 +29846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A126" s="148">
         <v>114.5</v>
       </c>
@@ -29875,7 +29872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A127" s="148">
         <v>115.5</v>
       </c>
@@ -29901,7 +29898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A128" s="148">
         <v>116.5</v>
       </c>
@@ -29927,7 +29924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A129" s="148">
         <v>117.5</v>
       </c>
@@ -29953,7 +29950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A130" s="148">
         <v>118.5</v>
       </c>
@@ -29979,7 +29976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A131" s="148">
         <v>119.5</v>
       </c>
@@ -30005,7 +30002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A132" s="147">
         <v>120.5</v>
       </c>
@@ -30031,7 +30028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A133" s="147">
         <v>121.5</v>
       </c>
@@ -30057,7 +30054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A134" s="147">
         <v>122.5</v>
       </c>
@@ -30083,7 +30080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A135" s="147">
         <v>123.5</v>
       </c>
@@ -30109,7 +30106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A136" s="147">
         <v>124.5</v>
       </c>
@@ -30135,7 +30132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A137" s="147">
         <v>125.5</v>
       </c>
@@ -30161,7 +30158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A138" s="147">
         <v>126.5</v>
       </c>
@@ -30187,7 +30184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A139" s="147">
         <v>127.5</v>
       </c>
@@ -30213,7 +30210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A140" s="147">
         <v>128.5</v>
       </c>
@@ -30239,7 +30236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A141" s="147">
         <v>129.5</v>
       </c>
@@ -30265,7 +30262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A142" s="147">
         <v>130.5</v>
       </c>
@@ -30291,7 +30288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A143" s="147">
         <v>131.5</v>
       </c>
@@ -30317,7 +30314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A144" s="147">
         <v>132.5</v>
       </c>
@@ -30343,7 +30340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A145" s="147">
         <v>133.5</v>
       </c>
@@ -30369,7 +30366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A146" s="147">
         <v>134.5</v>
       </c>
@@ -30395,7 +30392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A147" s="147">
         <v>135.5</v>
       </c>
@@ -30421,7 +30418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A148" s="147">
         <v>136.5</v>
       </c>
@@ -30447,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A149" s="147">
         <v>137.5</v>
       </c>
@@ -30473,7 +30470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A150" s="147">
         <v>138.5</v>
       </c>
@@ -30499,7 +30496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A151" s="147">
         <v>139.5</v>
       </c>
@@ -30525,7 +30522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A152" s="147">
         <v>140.5</v>
       </c>
@@ -30551,7 +30548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A153" s="147">
         <v>141.5</v>
       </c>
@@ -30577,7 +30574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A154" s="147">
         <v>142.5</v>
       </c>
@@ -30603,7 +30600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A155" s="147">
         <v>143.5</v>
       </c>
@@ -30629,7 +30626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A156" s="148">
         <v>144.5</v>
       </c>
@@ -30655,7 +30652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A157" s="148">
         <v>145.5</v>
       </c>
@@ -30681,7 +30678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A158" s="148">
         <v>146.5</v>
       </c>
@@ -30707,7 +30704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A159" s="148">
         <v>147.5</v>
       </c>
@@ -30733,7 +30730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A160" s="148">
         <v>148.5</v>
       </c>
@@ -30759,7 +30756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A161" s="148">
         <v>149.5</v>
       </c>
@@ -30785,7 +30782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A162" s="148">
         <v>150.5</v>
       </c>
@@ -30811,7 +30808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A163" s="148">
         <v>151.5</v>
       </c>
@@ -30837,7 +30834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A164" s="148">
         <v>152.5</v>
       </c>
@@ -30863,7 +30860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A165" s="148">
         <v>153.5</v>
       </c>
@@ -30889,7 +30886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A166" s="148">
         <v>154.5</v>
       </c>
@@ -30915,7 +30912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A167" s="148">
         <v>155.5</v>
       </c>
@@ -30941,7 +30938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A168" s="148">
         <v>156.5</v>
       </c>
@@ -30967,7 +30964,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A169" s="148">
         <v>157.5</v>
       </c>
@@ -30993,7 +30990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A170" s="148">
         <v>158.5</v>
       </c>
@@ -31019,7 +31016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A171" s="148">
         <v>159.5</v>
       </c>
@@ -31045,7 +31042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A172" s="148">
         <v>160.5</v>
       </c>
@@ -31071,7 +31068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A173" s="148">
         <v>161.5</v>
       </c>
@@ -31097,7 +31094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A174" s="148">
         <v>162.5</v>
       </c>
@@ -31123,7 +31120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A175" s="148">
         <v>163.5</v>
       </c>
@@ -31149,7 +31146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A176" s="148">
         <v>164.5</v>
       </c>
@@ -31175,7 +31172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A177" s="148">
         <v>165.5</v>
       </c>
@@ -31201,7 +31198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A178" s="148">
         <v>166.5</v>
       </c>
@@ -31227,7 +31224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A179" s="148">
         <v>167.5</v>
       </c>
@@ -31253,7 +31250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A180" s="147">
         <v>168.5</v>
       </c>
@@ -31279,7 +31276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A181" s="147">
         <v>169.5</v>
       </c>
@@ -31305,7 +31302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A182" s="147">
         <v>170.5</v>
       </c>
@@ -31331,7 +31328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A183" s="147">
         <v>171.5</v>
       </c>
@@ -31357,7 +31354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A184" s="147">
         <v>172.5</v>
       </c>
@@ -31383,7 +31380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A185" s="147">
         <v>173.5</v>
       </c>
@@ -31409,7 +31406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A186" s="147">
         <v>174.5</v>
       </c>
@@ -31435,7 +31432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A187" s="147">
         <v>175.5</v>
       </c>
@@ -31461,7 +31458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A188" s="147">
         <v>176.5</v>
       </c>
@@ -31487,7 +31484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A189" s="147">
         <v>177.5</v>
       </c>
@@ -31513,7 +31510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A190" s="147">
         <v>178.5</v>
       </c>
@@ -31539,7 +31536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A191" s="147">
         <v>179.5</v>
       </c>
@@ -31565,7 +31562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A192" s="147">
         <v>180.5</v>
       </c>
@@ -31591,7 +31588,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A193" s="147">
         <v>181.5</v>
       </c>
@@ -31617,7 +31614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A194" s="147">
         <v>182.5</v>
       </c>
@@ -31643,7 +31640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A195" s="147">
         <v>183.5</v>
       </c>
@@ -31669,7 +31666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A196" s="147">
         <v>184.5</v>
       </c>
@@ -31695,7 +31692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A197" s="147">
         <v>185.5</v>
       </c>
@@ -31721,7 +31718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A198" s="147">
         <v>186.5</v>
       </c>
@@ -31747,7 +31744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A199" s="147">
         <v>187.5</v>
       </c>
@@ -31773,7 +31770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A200" s="147">
         <v>188.5</v>
       </c>
@@ -31799,7 +31796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A201" s="147">
         <v>189.5</v>
       </c>
@@ -31825,7 +31822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A202" s="147">
         <v>190.5</v>
       </c>
@@ -31851,7 +31848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="149">
         <v>191.5</v>
       </c>
@@ -31877,7 +31874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -32091,13 +32088,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>36</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>546100</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>41</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>203200</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
@@ -32116,15 +32113,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>29</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>488950</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>35</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32149,7 +32146,7 @@
                 <xdr:col>41</xdr:col>
                 <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32168,13 +32165,13 @@
                 <xdr:col>37</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>43</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -32197,56 +32194,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AT204"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1796875" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" customWidth="1"/>
+    <col min="30" max="30" width="23.81640625" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.42578125" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" customWidth="1"/>
-    <col min="40" max="42" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.1796875" customWidth="1"/>
+    <col min="33" max="33" width="14.26953125" customWidth="1"/>
+    <col min="34" max="34" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.453125" customWidth="1"/>
+    <col min="39" max="39" width="7.1796875" customWidth="1"/>
+    <col min="40" max="42" width="4.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="7" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B1"/>
       <c r="C1"/>
       <c r="D1"/>
@@ -32262,7 +32259,7 @@
       <c r="AS1"/>
       <c r="AT1"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2"/>
       <c r="D2"/>
@@ -32278,7 +32275,7 @@
       <c r="AS2"/>
       <c r="AT2"/>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3"/>
@@ -32294,7 +32291,7 @@
       <c r="AS3"/>
       <c r="AT3"/>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.35">
       <c r="B4"/>
       <c r="C4"/>
       <c r="D4"/>
@@ -32310,7 +32307,7 @@
       <c r="AS4"/>
       <c r="AT4"/>
     </row>
-    <row r="5" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D5"/>
       <c r="E5"/>
       <c r="F5"/>
@@ -32324,7 +32321,7 @@
       <c r="AG5" s="1"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="D6"/>
       <c r="E6"/>
       <c r="F6"/>
@@ -32338,7 +32335,7 @@
       <c r="AG6" s="1"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M7" s="6"/>
       <c r="R7" s="3"/>
       <c r="X7" s="3"/>
@@ -32347,7 +32344,7 @@
       <c r="AG7" s="1"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
@@ -32366,24 +32363,24 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C9" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="H9" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AN9"/>
       <c r="AO9"/>
@@ -32393,7 +32390,7 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="76" t="s">
         <v>0</v>
       </c>
@@ -32426,30 +32423,30 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>127</v>
       </c>
       <c r="AN11"/>
       <c r="AO11"/>
@@ -32459,7 +32456,7 @@
       <c r="AS11"/>
       <c r="AT11"/>
     </row>
-    <row r="12" spans="1:46" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:46" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A12" s="165">
         <v>0.5</v>
       </c>
@@ -32486,7 +32483,7 @@
       </c>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A13" s="143">
         <v>1.5</v>
       </c>
@@ -32513,7 +32510,7 @@
       </c>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A14" s="143">
         <v>2.5</v>
       </c>
@@ -32540,7 +32537,7 @@
       </c>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A15" s="143">
         <v>3.5</v>
       </c>
@@ -32567,7 +32564,7 @@
       </c>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A16" s="143">
         <v>4.5</v>
       </c>
@@ -32594,7 +32591,7 @@
       </c>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A17" s="143">
         <v>5.5</v>
       </c>
@@ -32621,7 +32618,7 @@
       </c>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A18" s="143">
         <v>6.5</v>
       </c>
@@ -32648,7 +32645,7 @@
       </c>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A19" s="143">
         <v>7.5</v>
       </c>
@@ -32675,7 +32672,7 @@
       </c>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A20" s="143">
         <v>8.5</v>
       </c>
@@ -32702,7 +32699,7 @@
       </c>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A21" s="143">
         <v>9.5</v>
       </c>
@@ -32729,7 +32726,7 @@
       </c>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A22" s="143">
         <v>10.5</v>
       </c>
@@ -32756,7 +32753,7 @@
       </c>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A23" s="143">
         <v>11.5</v>
       </c>
@@ -32783,7 +32780,7 @@
       </c>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A24" s="143">
         <v>12.5</v>
       </c>
@@ -32810,7 +32807,7 @@
       </c>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A25" s="143">
         <v>13.5</v>
       </c>
@@ -32837,7 +32834,7 @@
       </c>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A26" s="143">
         <v>14.5</v>
       </c>
@@ -32864,7 +32861,7 @@
       </c>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A27" s="143">
         <v>15.5</v>
       </c>
@@ -32891,7 +32888,7 @@
       </c>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A28" s="143">
         <v>16.5</v>
       </c>
@@ -32918,7 +32915,7 @@
       </c>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A29" s="143">
         <v>17.5</v>
       </c>
@@ -32945,7 +32942,7 @@
       </c>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A30" s="143">
         <v>18.5</v>
       </c>
@@ -32972,7 +32969,7 @@
       </c>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A31" s="143">
         <v>19.5</v>
       </c>
@@ -32999,7 +32996,7 @@
       </c>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A32" s="143">
         <v>20.5</v>
       </c>
@@ -33026,7 +33023,7 @@
       </c>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A33" s="143">
         <v>21.5</v>
       </c>
@@ -33053,7 +33050,7 @@
       </c>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A34" s="143">
         <v>22.5</v>
       </c>
@@ -33080,7 +33077,7 @@
       </c>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A35" s="143">
         <v>23.5</v>
       </c>
@@ -33107,7 +33104,7 @@
       </c>
       <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A36" s="145">
         <v>24.5</v>
       </c>
@@ -33134,7 +33131,7 @@
       </c>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A37" s="145">
         <v>25.5</v>
       </c>
@@ -33161,7 +33158,7 @@
       </c>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A38" s="145">
         <v>26.5</v>
       </c>
@@ -33188,7 +33185,7 @@
       </c>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A39" s="145">
         <v>27.5</v>
       </c>
@@ -33215,7 +33212,7 @@
       </c>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A40" s="145">
         <v>28.5</v>
       </c>
@@ -33242,7 +33239,7 @@
       </c>
       <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A41" s="145">
         <v>29.5</v>
       </c>
@@ -33269,7 +33266,7 @@
       </c>
       <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A42" s="145">
         <v>30.5</v>
       </c>
@@ -33296,7 +33293,7 @@
       </c>
       <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A43" s="145">
         <v>31.5</v>
       </c>
@@ -33323,7 +33320,7 @@
       </c>
       <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A44" s="145">
         <v>32.5</v>
       </c>
@@ -33350,7 +33347,7 @@
       </c>
       <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A45" s="145">
         <v>33.5</v>
       </c>
@@ -33377,7 +33374,7 @@
       </c>
       <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A46" s="145">
         <v>34.5</v>
       </c>
@@ -33404,7 +33401,7 @@
       </c>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A47" s="145">
         <v>35.5</v>
       </c>
@@ -33431,7 +33428,7 @@
       </c>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A48" s="145">
         <v>36.5</v>
       </c>
@@ -33458,7 +33455,7 @@
       </c>
       <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A49" s="145">
         <v>37.5</v>
       </c>
@@ -33485,7 +33482,7 @@
       </c>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A50" s="145">
         <v>38.5</v>
       </c>
@@ -33512,7 +33509,7 @@
       </c>
       <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A51" s="145">
         <v>39.5</v>
       </c>
@@ -33539,7 +33536,7 @@
       </c>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A52" s="145">
         <v>40.5</v>
       </c>
@@ -33566,7 +33563,7 @@
       </c>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A53" s="145">
         <v>41.5</v>
       </c>
@@ -33593,7 +33590,7 @@
       </c>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A54" s="145">
         <v>42.5</v>
       </c>
@@ -33620,7 +33617,7 @@
       </c>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A55" s="145">
         <v>43.5</v>
       </c>
@@ -33647,7 +33644,7 @@
       </c>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A56" s="145">
         <v>44.5</v>
       </c>
@@ -33674,7 +33671,7 @@
       </c>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A57" s="145">
         <v>45.5</v>
       </c>
@@ -33701,7 +33698,7 @@
       </c>
       <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A58" s="145">
         <v>46.5</v>
       </c>
@@ -33728,7 +33725,7 @@
       </c>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A59" s="145">
         <v>47.5</v>
       </c>
@@ -33755,7 +33752,7 @@
       </c>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A60" s="146">
         <v>48.5</v>
       </c>
@@ -33782,7 +33779,7 @@
       </c>
       <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A61" s="146">
         <v>49.5</v>
       </c>
@@ -33809,7 +33806,7 @@
       </c>
       <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A62" s="146">
         <v>50.5</v>
       </c>
@@ -33836,7 +33833,7 @@
       </c>
       <c r="AK62" s="1"/>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A63" s="146">
         <v>51.5</v>
       </c>
@@ -33863,7 +33860,7 @@
       </c>
       <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A64" s="146">
         <v>52.5</v>
       </c>
@@ -33890,7 +33887,7 @@
       </c>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A65" s="146">
         <v>53.5</v>
       </c>
@@ -33917,7 +33914,7 @@
       </c>
       <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A66" s="146">
         <v>54.5</v>
       </c>
@@ -33944,7 +33941,7 @@
       </c>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A67" s="146">
         <v>55.5</v>
       </c>
@@ -33971,7 +33968,7 @@
       </c>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A68" s="146">
         <v>56.5</v>
       </c>
@@ -33998,7 +33995,7 @@
       </c>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A69" s="146">
         <v>57.5</v>
       </c>
@@ -34025,7 +34022,7 @@
       </c>
       <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A70" s="146">
         <v>58.5</v>
       </c>
@@ -34052,7 +34049,7 @@
       </c>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A71" s="146">
         <v>59.5</v>
       </c>
@@ -34079,7 +34076,7 @@
       </c>
       <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A72" s="146">
         <v>60.5</v>
       </c>
@@ -34106,7 +34103,7 @@
       </c>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A73" s="146">
         <v>61.5</v>
       </c>
@@ -34133,7 +34130,7 @@
       </c>
       <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A74" s="146">
         <v>62.5</v>
       </c>
@@ -34160,7 +34157,7 @@
       </c>
       <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A75" s="146">
         <v>63.5</v>
       </c>
@@ -34187,7 +34184,7 @@
       </c>
       <c r="AK75" s="1"/>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A76" s="146">
         <v>64.5</v>
       </c>
@@ -34214,7 +34211,7 @@
       </c>
       <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A77" s="146">
         <v>65.5</v>
       </c>
@@ -34241,7 +34238,7 @@
       </c>
       <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A78" s="146">
         <v>66.5</v>
       </c>
@@ -34268,7 +34265,7 @@
       </c>
       <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A79" s="146">
         <v>67.5</v>
       </c>
@@ -34295,7 +34292,7 @@
       </c>
       <c r="AK79" s="1"/>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A80" s="146">
         <v>68.5</v>
       </c>
@@ -34322,7 +34319,7 @@
       </c>
       <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A81" s="146">
         <v>69.5</v>
       </c>
@@ -34349,7 +34346,7 @@
       </c>
       <c r="AK81" s="1"/>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A82" s="146">
         <v>70.5</v>
       </c>
@@ -34376,7 +34373,7 @@
       </c>
       <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A83" s="146">
         <v>71.5</v>
       </c>
@@ -34403,7 +34400,7 @@
       </c>
       <c r="AK83" s="1"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A84" s="147">
         <v>72.5</v>
       </c>
@@ -34430,7 +34427,7 @@
       </c>
       <c r="AK84" s="1"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A85" s="147">
         <v>73.5</v>
       </c>
@@ -34457,7 +34454,7 @@
       </c>
       <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A86" s="147">
         <v>74.5</v>
       </c>
@@ -34484,7 +34481,7 @@
       </c>
       <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A87" s="147">
         <v>75.5</v>
       </c>
@@ -34511,7 +34508,7 @@
       </c>
       <c r="AK87" s="1"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A88" s="147">
         <v>76.5</v>
       </c>
@@ -34538,7 +34535,7 @@
       </c>
       <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A89" s="147">
         <v>77.5</v>
       </c>
@@ -34565,7 +34562,7 @@
       </c>
       <c r="AK89" s="1"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A90" s="147">
         <v>78.5</v>
       </c>
@@ -34592,7 +34589,7 @@
       </c>
       <c r="AK90" s="1"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A91" s="147">
         <v>79.5</v>
       </c>
@@ -34619,7 +34616,7 @@
       </c>
       <c r="AK91" s="1"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A92" s="147">
         <v>80.5</v>
       </c>
@@ -34646,7 +34643,7 @@
       </c>
       <c r="AK92" s="1"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A93" s="147">
         <v>81.5</v>
       </c>
@@ -34673,7 +34670,7 @@
       </c>
       <c r="AK93" s="1"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A94" s="147">
         <v>82.5</v>
       </c>
@@ -34700,7 +34697,7 @@
       </c>
       <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A95" s="147">
         <v>83.5</v>
       </c>
@@ -34727,7 +34724,7 @@
       </c>
       <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A96" s="147">
         <v>84.5</v>
       </c>
@@ -34754,7 +34751,7 @@
       </c>
       <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A97" s="147">
         <v>85.5</v>
       </c>
@@ -34781,7 +34778,7 @@
       </c>
       <c r="AK97" s="1"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A98" s="147">
         <v>86.5</v>
       </c>
@@ -34808,7 +34805,7 @@
       </c>
       <c r="AK98" s="1"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A99" s="147">
         <v>87.5</v>
       </c>
@@ -34835,7 +34832,7 @@
       </c>
       <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A100" s="147">
         <v>88.5</v>
       </c>
@@ -34862,7 +34859,7 @@
       </c>
       <c r="AK100" s="1"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A101" s="147">
         <v>89.5</v>
       </c>
@@ -34889,7 +34886,7 @@
       </c>
       <c r="AK101" s="1"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A102" s="147">
         <v>90.5</v>
       </c>
@@ -34916,7 +34913,7 @@
       </c>
       <c r="AK102" s="1"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A103" s="147">
         <v>91.5</v>
       </c>
@@ -34943,7 +34940,7 @@
       </c>
       <c r="AK103" s="1"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A104" s="147">
         <v>92.5</v>
       </c>
@@ -34970,7 +34967,7 @@
       </c>
       <c r="AK104" s="1"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A105" s="147">
         <v>93.5</v>
       </c>
@@ -34997,7 +34994,7 @@
       </c>
       <c r="AK105" s="1"/>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A106" s="147">
         <v>94.5</v>
       </c>
@@ -35024,7 +35021,7 @@
       </c>
       <c r="AK106" s="1"/>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A107" s="147">
         <v>95.5</v>
       </c>
@@ -35051,7 +35048,7 @@
       </c>
       <c r="AK107" s="1"/>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A108" s="148">
         <v>96.5</v>
       </c>
@@ -35078,7 +35075,7 @@
       </c>
       <c r="AK108" s="1"/>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A109" s="148">
         <v>97.5</v>
       </c>
@@ -35105,7 +35102,7 @@
       </c>
       <c r="AK109" s="1"/>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A110" s="148">
         <v>98.5</v>
       </c>
@@ -35132,7 +35129,7 @@
       </c>
       <c r="AK110" s="1"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A111" s="148">
         <v>99.5</v>
       </c>
@@ -35159,7 +35156,7 @@
       </c>
       <c r="AK111" s="1"/>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A112" s="148">
         <v>100.5</v>
       </c>
@@ -35186,7 +35183,7 @@
       </c>
       <c r="AK112" s="1"/>
     </row>
-    <row r="113" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A113" s="148">
         <v>101.5</v>
       </c>
@@ -35213,7 +35210,7 @@
       </c>
       <c r="AK113" s="1"/>
     </row>
-    <row r="114" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A114" s="148">
         <v>102.5</v>
       </c>
@@ -35240,7 +35237,7 @@
       </c>
       <c r="AK114" s="1"/>
     </row>
-    <row r="115" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A115" s="148">
         <v>103.5</v>
       </c>
@@ -35267,7 +35264,7 @@
       </c>
       <c r="AK115" s="1"/>
     </row>
-    <row r="116" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A116" s="148">
         <v>104.5</v>
       </c>
@@ -35294,7 +35291,7 @@
       </c>
       <c r="AK116" s="1"/>
     </row>
-    <row r="117" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A117" s="148">
         <v>105.5</v>
       </c>
@@ -35321,7 +35318,7 @@
       </c>
       <c r="AK117" s="1"/>
     </row>
-    <row r="118" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A118" s="148">
         <v>106.5</v>
       </c>
@@ -35348,7 +35345,7 @@
       </c>
       <c r="AK118" s="1"/>
     </row>
-    <row r="119" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A119" s="148">
         <v>107.5</v>
       </c>
@@ -35375,7 +35372,7 @@
       </c>
       <c r="AK119" s="1"/>
     </row>
-    <row r="120" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A120" s="148">
         <v>108.5</v>
       </c>
@@ -35402,7 +35399,7 @@
       </c>
       <c r="AK120" s="1"/>
     </row>
-    <row r="121" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A121" s="148">
         <v>109.5</v>
       </c>
@@ -35429,7 +35426,7 @@
       </c>
       <c r="AK121" s="1"/>
     </row>
-    <row r="122" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A122" s="148">
         <v>110.5</v>
       </c>
@@ -35456,7 +35453,7 @@
       </c>
       <c r="AK122" s="1"/>
     </row>
-    <row r="123" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A123" s="148">
         <v>111.5</v>
       </c>
@@ -35483,7 +35480,7 @@
       </c>
       <c r="AK123" s="1"/>
     </row>
-    <row r="124" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A124" s="148">
         <v>112.5</v>
       </c>
@@ -35510,7 +35507,7 @@
       </c>
       <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A125" s="148">
         <v>113.5</v>
       </c>
@@ -35537,7 +35534,7 @@
       </c>
       <c r="AK125" s="1"/>
     </row>
-    <row r="126" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A126" s="148">
         <v>114.5</v>
       </c>
@@ -35564,7 +35561,7 @@
       </c>
       <c r="AK126" s="1"/>
     </row>
-    <row r="127" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A127" s="148">
         <v>115.5</v>
       </c>
@@ -35591,7 +35588,7 @@
       </c>
       <c r="AK127" s="1"/>
     </row>
-    <row r="128" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A128" s="148">
         <v>116.5</v>
       </c>
@@ -35618,7 +35615,7 @@
       </c>
       <c r="AK128" s="1"/>
     </row>
-    <row r="129" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A129" s="148">
         <v>117.5</v>
       </c>
@@ -35645,7 +35642,7 @@
       </c>
       <c r="AK129" s="1"/>
     </row>
-    <row r="130" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A130" s="148">
         <v>118.5</v>
       </c>
@@ -35672,7 +35669,7 @@
       </c>
       <c r="AK130" s="1"/>
     </row>
-    <row r="131" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A131" s="148">
         <v>119.5</v>
       </c>
@@ -35699,7 +35696,7 @@
       </c>
       <c r="AK131" s="1"/>
     </row>
-    <row r="132" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A132" s="147">
         <v>120.5</v>
       </c>
@@ -35726,7 +35723,7 @@
       </c>
       <c r="AK132" s="1"/>
     </row>
-    <row r="133" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A133" s="147">
         <v>121.5</v>
       </c>
@@ -35753,7 +35750,7 @@
       </c>
       <c r="AK133" s="1"/>
     </row>
-    <row r="134" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A134" s="147">
         <v>122.5</v>
       </c>
@@ -35780,7 +35777,7 @@
       </c>
       <c r="AK134" s="1"/>
     </row>
-    <row r="135" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A135" s="147">
         <v>123.5</v>
       </c>
@@ -35807,7 +35804,7 @@
       </c>
       <c r="AK135" s="1"/>
     </row>
-    <row r="136" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A136" s="147">
         <v>124.5</v>
       </c>
@@ -35834,7 +35831,7 @@
       </c>
       <c r="AK136" s="1"/>
     </row>
-    <row r="137" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A137" s="147">
         <v>125.5</v>
       </c>
@@ -35861,7 +35858,7 @@
       </c>
       <c r="AK137" s="1"/>
     </row>
-    <row r="138" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A138" s="147">
         <v>126.5</v>
       </c>
@@ -35888,7 +35885,7 @@
       </c>
       <c r="AK138" s="1"/>
     </row>
-    <row r="139" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A139" s="147">
         <v>127.5</v>
       </c>
@@ -35915,7 +35912,7 @@
       </c>
       <c r="AK139" s="1"/>
     </row>
-    <row r="140" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A140" s="147">
         <v>128.5</v>
       </c>
@@ -35942,7 +35939,7 @@
       </c>
       <c r="AK140" s="1"/>
     </row>
-    <row r="141" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A141" s="147">
         <v>129.5</v>
       </c>
@@ -35969,7 +35966,7 @@
       </c>
       <c r="AK141" s="1"/>
     </row>
-    <row r="142" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A142" s="147">
         <v>130.5</v>
       </c>
@@ -35996,7 +35993,7 @@
       </c>
       <c r="AK142" s="1"/>
     </row>
-    <row r="143" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A143" s="147">
         <v>131.5</v>
       </c>
@@ -36023,7 +36020,7 @@
       </c>
       <c r="AK143" s="1"/>
     </row>
-    <row r="144" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A144" s="147">
         <v>132.5</v>
       </c>
@@ -36050,7 +36047,7 @@
       </c>
       <c r="AK144" s="1"/>
     </row>
-    <row r="145" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A145" s="147">
         <v>133.5</v>
       </c>
@@ -36077,7 +36074,7 @@
       </c>
       <c r="AK145" s="1"/>
     </row>
-    <row r="146" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A146" s="147">
         <v>134.5</v>
       </c>
@@ -36104,7 +36101,7 @@
       </c>
       <c r="AK146" s="1"/>
     </row>
-    <row r="147" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A147" s="147">
         <v>135.5</v>
       </c>
@@ -36131,7 +36128,7 @@
       </c>
       <c r="AK147" s="1"/>
     </row>
-    <row r="148" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A148" s="147">
         <v>136.5</v>
       </c>
@@ -36158,7 +36155,7 @@
       </c>
       <c r="AK148" s="1"/>
     </row>
-    <row r="149" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A149" s="147">
         <v>137.5</v>
       </c>
@@ -36185,7 +36182,7 @@
       </c>
       <c r="AK149" s="1"/>
     </row>
-    <row r="150" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A150" s="147">
         <v>138.5</v>
       </c>
@@ -36212,7 +36209,7 @@
       </c>
       <c r="AK150" s="1"/>
     </row>
-    <row r="151" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A151" s="147">
         <v>139.5</v>
       </c>
@@ -36239,7 +36236,7 @@
       </c>
       <c r="AK151" s="1"/>
     </row>
-    <row r="152" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A152" s="147">
         <v>140.5</v>
       </c>
@@ -36266,7 +36263,7 @@
       </c>
       <c r="AK152" s="1"/>
     </row>
-    <row r="153" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A153" s="147">
         <v>141.5</v>
       </c>
@@ -36293,7 +36290,7 @@
       </c>
       <c r="AK153" s="1"/>
     </row>
-    <row r="154" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A154" s="147">
         <v>142.5</v>
       </c>
@@ -36320,7 +36317,7 @@
       </c>
       <c r="AK154" s="1"/>
     </row>
-    <row r="155" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A155" s="147">
         <v>143.5</v>
       </c>
@@ -36347,7 +36344,7 @@
       </c>
       <c r="AK155" s="1"/>
     </row>
-    <row r="156" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A156" s="148">
         <v>144.5</v>
       </c>
@@ -36374,7 +36371,7 @@
       </c>
       <c r="AK156" s="1"/>
     </row>
-    <row r="157" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A157" s="148">
         <v>145.5</v>
       </c>
@@ -36401,7 +36398,7 @@
       </c>
       <c r="AK157" s="1"/>
     </row>
-    <row r="158" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A158" s="148">
         <v>146.5</v>
       </c>
@@ -36428,7 +36425,7 @@
       </c>
       <c r="AK158" s="1"/>
     </row>
-    <row r="159" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A159" s="148">
         <v>147.5</v>
       </c>
@@ -36455,7 +36452,7 @@
       </c>
       <c r="AK159" s="1"/>
     </row>
-    <row r="160" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A160" s="148">
         <v>148.5</v>
       </c>
@@ -36482,7 +36479,7 @@
       </c>
       <c r="AK160" s="1"/>
     </row>
-    <row r="161" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A161" s="148">
         <v>149.5</v>
       </c>
@@ -36509,7 +36506,7 @@
       </c>
       <c r="AK161" s="1"/>
     </row>
-    <row r="162" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A162" s="148">
         <v>150.5</v>
       </c>
@@ -36536,7 +36533,7 @@
       </c>
       <c r="AK162" s="1"/>
     </row>
-    <row r="163" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A163" s="148">
         <v>151.5</v>
       </c>
@@ -36563,7 +36560,7 @@
       </c>
       <c r="AK163" s="1"/>
     </row>
-    <row r="164" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A164" s="148">
         <v>152.5</v>
       </c>
@@ -36590,7 +36587,7 @@
       </c>
       <c r="AK164" s="1"/>
     </row>
-    <row r="165" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A165" s="148">
         <v>153.5</v>
       </c>
@@ -36617,7 +36614,7 @@
       </c>
       <c r="AK165" s="1"/>
     </row>
-    <row r="166" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A166" s="148">
         <v>154.5</v>
       </c>
@@ -36644,7 +36641,7 @@
       </c>
       <c r="AK166" s="1"/>
     </row>
-    <row r="167" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A167" s="148">
         <v>155.5</v>
       </c>
@@ -36671,7 +36668,7 @@
       </c>
       <c r="AK167" s="1"/>
     </row>
-    <row r="168" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A168" s="148">
         <v>156.5</v>
       </c>
@@ -36698,7 +36695,7 @@
       </c>
       <c r="AK168" s="1"/>
     </row>
-    <row r="169" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A169" s="148">
         <v>157.5</v>
       </c>
@@ -36725,7 +36722,7 @@
       </c>
       <c r="AK169" s="1"/>
     </row>
-    <row r="170" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A170" s="148">
         <v>158.5</v>
       </c>
@@ -36752,7 +36749,7 @@
       </c>
       <c r="AK170" s="1"/>
     </row>
-    <row r="171" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A171" s="148">
         <v>159.5</v>
       </c>
@@ -36779,7 +36776,7 @@
       </c>
       <c r="AK171" s="1"/>
     </row>
-    <row r="172" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A172" s="148">
         <v>160.5</v>
       </c>
@@ -36806,7 +36803,7 @@
       </c>
       <c r="AK172" s="1"/>
     </row>
-    <row r="173" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A173" s="148">
         <v>161.5</v>
       </c>
@@ -36833,7 +36830,7 @@
       </c>
       <c r="AK173" s="1"/>
     </row>
-    <row r="174" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A174" s="148">
         <v>162.5</v>
       </c>
@@ -36860,7 +36857,7 @@
       </c>
       <c r="AK174" s="1"/>
     </row>
-    <row r="175" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A175" s="148">
         <v>163.5</v>
       </c>
@@ -36887,7 +36884,7 @@
       </c>
       <c r="AK175" s="1"/>
     </row>
-    <row r="176" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A176" s="148">
         <v>164.5</v>
       </c>
@@ -36914,7 +36911,7 @@
       </c>
       <c r="AK176" s="1"/>
     </row>
-    <row r="177" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A177" s="148">
         <v>165.5</v>
       </c>
@@ -36941,7 +36938,7 @@
       </c>
       <c r="AK177" s="1"/>
     </row>
-    <row r="178" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A178" s="148">
         <v>166.5</v>
       </c>
@@ -36968,7 +36965,7 @@
       </c>
       <c r="AK178" s="1"/>
     </row>
-    <row r="179" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A179" s="148">
         <v>167.5</v>
       </c>
@@ -36995,7 +36992,7 @@
       </c>
       <c r="AK179" s="1"/>
     </row>
-    <row r="180" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A180" s="147">
         <v>168.5</v>
       </c>
@@ -37022,7 +37019,7 @@
       </c>
       <c r="AK180" s="1"/>
     </row>
-    <row r="181" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A181" s="147">
         <v>169.5</v>
       </c>
@@ -37049,7 +37046,7 @@
       </c>
       <c r="AK181" s="1"/>
     </row>
-    <row r="182" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A182" s="147">
         <v>170.5</v>
       </c>
@@ -37076,7 +37073,7 @@
       </c>
       <c r="AK182" s="1"/>
     </row>
-    <row r="183" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A183" s="147">
         <v>171.5</v>
       </c>
@@ -37103,7 +37100,7 @@
       </c>
       <c r="AK183" s="1"/>
     </row>
-    <row r="184" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A184" s="147">
         <v>172.5</v>
       </c>
@@ -37130,7 +37127,7 @@
       </c>
       <c r="AK184" s="1"/>
     </row>
-    <row r="185" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A185" s="147">
         <v>173.5</v>
       </c>
@@ -37157,7 +37154,7 @@
       </c>
       <c r="AK185" s="1"/>
     </row>
-    <row r="186" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A186" s="147">
         <v>174.5</v>
       </c>
@@ -37184,7 +37181,7 @@
       </c>
       <c r="AK186" s="1"/>
     </row>
-    <row r="187" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A187" s="147">
         <v>175.5</v>
       </c>
@@ -37211,7 +37208,7 @@
       </c>
       <c r="AK187" s="1"/>
     </row>
-    <row r="188" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A188" s="147">
         <v>176.5</v>
       </c>
@@ -37238,7 +37235,7 @@
       </c>
       <c r="AK188" s="1"/>
     </row>
-    <row r="189" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A189" s="147">
         <v>177.5</v>
       </c>
@@ -37265,7 +37262,7 @@
       </c>
       <c r="AK189" s="1"/>
     </row>
-    <row r="190" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A190" s="147">
         <v>178.5</v>
       </c>
@@ -37292,7 +37289,7 @@
       </c>
       <c r="AK190" s="1"/>
     </row>
-    <row r="191" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A191" s="147">
         <v>179.5</v>
       </c>
@@ -37319,7 +37316,7 @@
       </c>
       <c r="AK191" s="1"/>
     </row>
-    <row r="192" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A192" s="147">
         <v>180.5</v>
       </c>
@@ -37346,7 +37343,7 @@
       </c>
       <c r="AK192" s="1"/>
     </row>
-    <row r="193" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A193" s="147">
         <v>181.5</v>
       </c>
@@ -37373,7 +37370,7 @@
       </c>
       <c r="AK193" s="1"/>
     </row>
-    <row r="194" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A194" s="147">
         <v>182.5</v>
       </c>
@@ -37400,7 +37397,7 @@
       </c>
       <c r="AK194" s="1"/>
     </row>
-    <row r="195" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A195" s="147">
         <v>183.5</v>
       </c>
@@ -37427,7 +37424,7 @@
       </c>
       <c r="AK195" s="1"/>
     </row>
-    <row r="196" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A196" s="147">
         <v>184.5</v>
       </c>
@@ -37454,7 +37451,7 @@
       </c>
       <c r="AK196" s="1"/>
     </row>
-    <row r="197" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A197" s="147">
         <v>185.5</v>
       </c>
@@ -37481,7 +37478,7 @@
       </c>
       <c r="AK197" s="1"/>
     </row>
-    <row r="198" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A198" s="147">
         <v>186.5</v>
       </c>
@@ -37508,7 +37505,7 @@
       </c>
       <c r="AK198" s="1"/>
     </row>
-    <row r="199" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A199" s="147">
         <v>187.5</v>
       </c>
@@ -37535,7 +37532,7 @@
       </c>
       <c r="AK199" s="1"/>
     </row>
-    <row r="200" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A200" s="147">
         <v>188.5</v>
       </c>
@@ -37562,7 +37559,7 @@
       </c>
       <c r="AK200" s="1"/>
     </row>
-    <row r="201" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A201" s="147">
         <v>189.5</v>
       </c>
@@ -37589,7 +37586,7 @@
       </c>
       <c r="AK201" s="1"/>
     </row>
-    <row r="202" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:37" x14ac:dyDescent="0.35">
       <c r="A202" s="147">
         <v>190.5</v>
       </c>
@@ -37616,7 +37613,7 @@
       </c>
       <c r="AK202" s="1"/>
     </row>
-    <row r="203" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="149">
         <v>191.5</v>
       </c>
@@ -37643,7 +37640,7 @@
       </c>
       <c r="AK203" s="1"/>
     </row>
-    <row r="204" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -37759,13 +37756,13 @@
                 <xdr:col>37</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>43</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -37832,7 +37829,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>40</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>31750</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
@@ -37942,13 +37939,13 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="15" max="15" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="38" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="19:25" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="19:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="19:25" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="S39" s="130" t="s">
         <v>34</v>
       </c>
@@ -37971,7 +37968,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="19:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="19:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="S40" s="135">
         <v>1</v>
       </c>
@@ -38000,7 +37997,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S41" s="135">
         <v>2</v>
       </c>
@@ -38029,7 +38026,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S42" s="135">
         <v>3</v>
       </c>
@@ -38058,7 +38055,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S43" s="135">
         <v>4</v>
       </c>
@@ -38087,7 +38084,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S44" s="135">
         <v>5</v>
       </c>
@@ -38116,7 +38113,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S45" s="135">
         <v>6</v>
       </c>
@@ -38145,7 +38142,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S46" s="135">
         <v>7</v>
       </c>
@@ -38174,7 +38171,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="19:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S47" s="139">
         <v>8</v>
       </c>
@@ -38203,7 +38200,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="19:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="19:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -38223,10 +38220,10 @@
       <selection activeCell="T40" sqref="T40:T47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="38" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="19:25" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="19:25" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="39" spans="19:25" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="S39" s="130" t="s">
         <v>34</v>
       </c>
@@ -38249,7 +38246,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="40" spans="19:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="19:25" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="S40" s="135">
         <v>1</v>
       </c>
@@ -38278,7 +38275,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="41" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S41" s="135">
         <v>2</v>
       </c>
@@ -38307,7 +38304,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S42" s="135">
         <v>3</v>
       </c>
@@ -38336,7 +38333,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="43" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S43" s="135">
         <v>4</v>
       </c>
@@ -38365,7 +38362,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="44" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S44" s="135">
         <v>5</v>
       </c>
@@ -38394,7 +38391,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="45" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S45" s="135">
         <v>6</v>
       </c>
@@ -38423,7 +38420,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="19:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="19:25" x14ac:dyDescent="0.35">
       <c r="S46" s="135">
         <v>7</v>
       </c>
@@ -38452,7 +38449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="47" spans="19:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="19:25" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S47" s="139">
         <v>8</v>
       </c>
@@ -38481,7 +38478,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="48" spans="19:25" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="19:25" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -38498,49 +38495,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C8AAA59-DBC9-4D32-9D73-5013C3567047}">
   <dimension ref="A1:AJ204"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.26953125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.453125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.453125" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="17" width="9" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7265625" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.7109375" customWidth="1"/>
+    <col min="23" max="23" width="10.7265625" customWidth="1"/>
     <col min="24" max="24" width="9" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.42578125" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="25.5703125" customWidth="1"/>
-    <col min="31" max="31" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.453125" customWidth="1"/>
+    <col min="26" max="26" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.26953125" style="7" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="25.54296875" customWidth="1"/>
+    <col min="31" max="31" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="13" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.42578125" style="1" customWidth="1"/>
-    <col min="34" max="34" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.453125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="7.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="7.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
@@ -38575,7 +38572,7 @@
       <c r="Z1" s="28"/>
       <c r="AA1"/>
     </row>
-    <row r="2" spans="1:36" ht="20.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:36" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="29" t="s">
         <v>3</v>
       </c>
@@ -38655,7 +38652,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -38735,7 +38732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46">
         <v>4</v>
       </c>
@@ -38770,7 +38767,7 @@
         <v>101.2</v>
       </c>
       <c r="K4" s="48">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="L4" s="49">
         <v>0.4</v>
@@ -38819,13 +38816,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E5" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="4">
-        <v>22</v>
-      </c>
+    <row r="5" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="3"/>
       <c r="H5" s="68" t="s">
         <v>65</v>
@@ -38841,17 +38834,11 @@
       <c r="X5"/>
       <c r="Z5" s="7"/>
     </row>
-    <row r="6" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
-      <c r="E6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" s="1">
-        <v>22</v>
-      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="K6" s="4"/>
@@ -38872,7 +38859,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:36" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
@@ -38917,7 +38904,7 @@
       <c r="AI7" s="126"/>
       <c r="AJ7" s="116"/>
     </row>
-    <row r="8" spans="1:36" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
@@ -38969,24 +38956,24 @@
       <c r="AI8" s="127"/>
       <c r="AJ8" s="103"/>
     </row>
-    <row r="9" spans="1:36" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:36" ht="17" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C9" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="H9" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="83" t="s">
         <v>69</v>
@@ -39057,7 +39044,7 @@
       <c r="AI9" s="117"/>
       <c r="AJ9" s="129"/>
     </row>
-    <row r="10" spans="1:36" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="76" t="s">
         <v>0</v>
       </c>
@@ -39167,30 +39154,30 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:36" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>127</v>
       </c>
       <c r="I11" s="96" t="s">
         <v>27</v>
@@ -39205,7 +39192,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="90" t="s">
         <v>29</v>
@@ -39229,19 +39216,19 @@
         <v>33</v>
       </c>
       <c r="U11" s="163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V11" s="108" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X11" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="104" t="s">
         <v>96</v>
@@ -39256,28 +39243,28 @@
         <v>22</v>
       </c>
       <c r="AD11" s="104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE11" s="104" t="s">
         <v>98</v>
       </c>
       <c r="AF11" s="104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG11" s="104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH11" s="123" t="s">
         <v>35</v>
       </c>
       <c r="AI11" s="123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ11" s="121" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:36" s="192" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" s="192" customFormat="1" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="186">
         <v>0.5</v>
       </c>
@@ -39338,7 +39325,7 @@
       <c r="AI12" s="185"/>
       <c r="AJ12" s="191"/>
     </row>
-    <row r="13" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="143">
         <v>1.5</v>
       </c>
@@ -39392,7 +39379,7 @@
       <c r="AI13" s="1"/>
       <c r="AJ13" s="171"/>
     </row>
-    <row r="14" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="143">
         <v>2.5</v>
       </c>
@@ -39444,7 +39431,7 @@
       <c r="AI14" s="1"/>
       <c r="AJ14" s="171"/>
     </row>
-    <row r="15" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="143">
         <v>3.5</v>
       </c>
@@ -39496,7 +39483,7 @@
       <c r="AI15" s="1"/>
       <c r="AJ15" s="171"/>
     </row>
-    <row r="16" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="143">
         <v>4.5</v>
       </c>
@@ -39548,7 +39535,7 @@
       <c r="AI16" s="1"/>
       <c r="AJ16" s="171"/>
     </row>
-    <row r="17" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="143">
         <v>5.5</v>
       </c>
@@ -39600,7 +39587,7 @@
       <c r="AI17" s="1"/>
       <c r="AJ17" s="171"/>
     </row>
-    <row r="18" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="143">
         <v>6.5</v>
       </c>
@@ -39652,7 +39639,7 @@
       <c r="AI18" s="1"/>
       <c r="AJ18" s="171"/>
     </row>
-    <row r="19" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="143">
         <v>7.5</v>
       </c>
@@ -39704,7 +39691,7 @@
       <c r="AI19" s="1"/>
       <c r="AJ19" s="171"/>
     </row>
-    <row r="20" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="143">
         <v>8.5</v>
       </c>
@@ -39756,7 +39743,7 @@
       <c r="AI20" s="1"/>
       <c r="AJ20" s="171"/>
     </row>
-    <row r="21" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="143">
         <v>9.5</v>
       </c>
@@ -39808,7 +39795,7 @@
       <c r="AI21" s="1"/>
       <c r="AJ21" s="171"/>
     </row>
-    <row r="22" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="143">
         <v>10.5</v>
       </c>
@@ -39860,7 +39847,7 @@
       <c r="AI22" s="1"/>
       <c r="AJ22" s="171"/>
     </row>
-    <row r="23" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="143">
         <v>11.5</v>
       </c>
@@ -39912,7 +39899,7 @@
       <c r="AI23" s="1"/>
       <c r="AJ23" s="171"/>
     </row>
-    <row r="24" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="143">
         <v>12.5</v>
       </c>
@@ -39964,7 +39951,7 @@
       <c r="AI24" s="1"/>
       <c r="AJ24" s="171"/>
     </row>
-    <row r="25" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="143">
         <v>13.5</v>
       </c>
@@ -40016,7 +40003,7 @@
       <c r="AI25" s="1"/>
       <c r="AJ25" s="171"/>
     </row>
-    <row r="26" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="143">
         <v>14.5</v>
       </c>
@@ -40068,7 +40055,7 @@
       <c r="AI26" s="1"/>
       <c r="AJ26" s="171"/>
     </row>
-    <row r="27" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="143">
         <v>15.5</v>
       </c>
@@ -40120,7 +40107,7 @@
       <c r="AI27" s="1"/>
       <c r="AJ27" s="171"/>
     </row>
-    <row r="28" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="143">
         <v>16.5</v>
       </c>
@@ -40172,7 +40159,7 @@
       <c r="AI28" s="1"/>
       <c r="AJ28" s="171"/>
     </row>
-    <row r="29" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="143">
         <v>17.5</v>
       </c>
@@ -40224,7 +40211,7 @@
       <c r="AI29" s="1"/>
       <c r="AJ29" s="171"/>
     </row>
-    <row r="30" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="143">
         <v>18.5</v>
       </c>
@@ -40276,7 +40263,7 @@
       <c r="AI30" s="1"/>
       <c r="AJ30" s="171"/>
     </row>
-    <row r="31" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="143">
         <v>19.5</v>
       </c>
@@ -40328,7 +40315,7 @@
       <c r="AI31" s="1"/>
       <c r="AJ31" s="171"/>
     </row>
-    <row r="32" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="143">
         <v>20.5</v>
       </c>
@@ -40380,7 +40367,7 @@
       <c r="AI32" s="1"/>
       <c r="AJ32" s="171"/>
     </row>
-    <row r="33" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="143">
         <v>21.5</v>
       </c>
@@ -40432,7 +40419,7 @@
       <c r="AI33" s="1"/>
       <c r="AJ33" s="171"/>
     </row>
-    <row r="34" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="143">
         <v>22.5</v>
       </c>
@@ -40484,7 +40471,7 @@
       <c r="AI34" s="1"/>
       <c r="AJ34" s="171"/>
     </row>
-    <row r="35" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="143">
         <v>23.5</v>
       </c>
@@ -40536,7 +40523,7 @@
       <c r="AI35" s="1"/>
       <c r="AJ35" s="171"/>
     </row>
-    <row r="36" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="145">
         <v>24.5</v>
       </c>
@@ -40588,7 +40575,7 @@
       <c r="AI36" s="1"/>
       <c r="AJ36" s="171"/>
     </row>
-    <row r="37" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="145">
         <v>25.5</v>
       </c>
@@ -40640,7 +40627,7 @@
       <c r="AI37" s="1"/>
       <c r="AJ37" s="171"/>
     </row>
-    <row r="38" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="145">
         <v>26.5</v>
       </c>
@@ -40692,7 +40679,7 @@
       <c r="AI38" s="1"/>
       <c r="AJ38" s="171"/>
     </row>
-    <row r="39" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="145">
         <v>27.5</v>
       </c>
@@ -40744,7 +40731,7 @@
       <c r="AI39" s="1"/>
       <c r="AJ39" s="171"/>
     </row>
-    <row r="40" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="145">
         <v>28.5</v>
       </c>
@@ -40796,7 +40783,7 @@
       <c r="AI40" s="1"/>
       <c r="AJ40" s="171"/>
     </row>
-    <row r="41" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="145">
         <v>29.5</v>
       </c>
@@ -40848,7 +40835,7 @@
       <c r="AI41" s="1"/>
       <c r="AJ41" s="171"/>
     </row>
-    <row r="42" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="145">
         <v>30.5</v>
       </c>
@@ -40900,7 +40887,7 @@
       <c r="AI42" s="1"/>
       <c r="AJ42" s="171"/>
     </row>
-    <row r="43" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="145">
         <v>31.5</v>
       </c>
@@ -40952,7 +40939,7 @@
       <c r="AI43" s="1"/>
       <c r="AJ43" s="171"/>
     </row>
-    <row r="44" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="145">
         <v>32.5</v>
       </c>
@@ -41004,7 +40991,7 @@
       <c r="AI44" s="1"/>
       <c r="AJ44" s="171"/>
     </row>
-    <row r="45" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="145">
         <v>33.5</v>
       </c>
@@ -41056,7 +41043,7 @@
       <c r="AI45" s="1"/>
       <c r="AJ45" s="171"/>
     </row>
-    <row r="46" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="145">
         <v>34.5</v>
       </c>
@@ -41108,7 +41095,7 @@
       <c r="AI46" s="1"/>
       <c r="AJ46" s="171"/>
     </row>
-    <row r="47" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="145">
         <v>35.5</v>
       </c>
@@ -41160,7 +41147,7 @@
       <c r="AI47" s="1"/>
       <c r="AJ47" s="171"/>
     </row>
-    <row r="48" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="145">
         <v>36.5</v>
       </c>
@@ -41212,7 +41199,7 @@
       <c r="AI48" s="1"/>
       <c r="AJ48" s="171"/>
     </row>
-    <row r="49" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="145">
         <v>37.5</v>
       </c>
@@ -41264,7 +41251,7 @@
       <c r="AI49" s="1"/>
       <c r="AJ49" s="171"/>
     </row>
-    <row r="50" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="145">
         <v>38.5</v>
       </c>
@@ -41316,7 +41303,7 @@
       <c r="AI50" s="1"/>
       <c r="AJ50" s="171"/>
     </row>
-    <row r="51" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="145">
         <v>39.5</v>
       </c>
@@ -41368,7 +41355,7 @@
       <c r="AI51" s="1"/>
       <c r="AJ51" s="171"/>
     </row>
-    <row r="52" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="145">
         <v>40.5</v>
       </c>
@@ -41420,7 +41407,7 @@
       <c r="AI52" s="1"/>
       <c r="AJ52" s="171"/>
     </row>
-    <row r="53" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="145">
         <v>41.5</v>
       </c>
@@ -41472,7 +41459,7 @@
       <c r="AI53" s="1"/>
       <c r="AJ53" s="171"/>
     </row>
-    <row r="54" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="145">
         <v>42.5</v>
       </c>
@@ -41524,7 +41511,7 @@
       <c r="AI54" s="1"/>
       <c r="AJ54" s="171"/>
     </row>
-    <row r="55" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="145">
         <v>43.5</v>
       </c>
@@ -41576,7 +41563,7 @@
       <c r="AI55" s="1"/>
       <c r="AJ55" s="171"/>
     </row>
-    <row r="56" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="145">
         <v>44.5</v>
       </c>
@@ -41628,7 +41615,7 @@
       <c r="AI56" s="1"/>
       <c r="AJ56" s="171"/>
     </row>
-    <row r="57" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="145">
         <v>45.5</v>
       </c>
@@ -41680,7 +41667,7 @@
       <c r="AI57" s="1"/>
       <c r="AJ57" s="171"/>
     </row>
-    <row r="58" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="145">
         <v>46.5</v>
       </c>
@@ -41732,7 +41719,7 @@
       <c r="AI58" s="1"/>
       <c r="AJ58" s="171"/>
     </row>
-    <row r="59" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="145">
         <v>47.5</v>
       </c>
@@ -41784,7 +41771,7 @@
       <c r="AI59" s="1"/>
       <c r="AJ59" s="171"/>
     </row>
-    <row r="60" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="146">
         <v>48.5</v>
       </c>
@@ -41836,7 +41823,7 @@
       <c r="AI60" s="1"/>
       <c r="AJ60" s="171"/>
     </row>
-    <row r="61" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="146">
         <v>49.5</v>
       </c>
@@ -41888,7 +41875,7 @@
       <c r="AI61" s="1"/>
       <c r="AJ61" s="171"/>
     </row>
-    <row r="62" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="146">
         <v>50.5</v>
       </c>
@@ -41940,7 +41927,7 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="171"/>
     </row>
-    <row r="63" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="146">
         <v>51.5</v>
       </c>
@@ -41992,7 +41979,7 @@
       <c r="AI63" s="1"/>
       <c r="AJ63" s="171"/>
     </row>
-    <row r="64" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="146">
         <v>52.5</v>
       </c>
@@ -42044,7 +42031,7 @@
       <c r="AI64" s="1"/>
       <c r="AJ64" s="171"/>
     </row>
-    <row r="65" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="146">
         <v>53.5</v>
       </c>
@@ -42096,7 +42083,7 @@
       <c r="AI65" s="1"/>
       <c r="AJ65" s="171"/>
     </row>
-    <row r="66" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="146">
         <v>54.5</v>
       </c>
@@ -42148,7 +42135,7 @@
       <c r="AI66" s="1"/>
       <c r="AJ66" s="171"/>
     </row>
-    <row r="67" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="146">
         <v>55.5</v>
       </c>
@@ -42200,7 +42187,7 @@
       <c r="AI67" s="1"/>
       <c r="AJ67" s="171"/>
     </row>
-    <row r="68" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="146">
         <v>56.5</v>
       </c>
@@ -42252,7 +42239,7 @@
       <c r="AI68" s="1"/>
       <c r="AJ68" s="171"/>
     </row>
-    <row r="69" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="146">
         <v>57.5</v>
       </c>
@@ -42304,7 +42291,7 @@
       <c r="AI69" s="1"/>
       <c r="AJ69" s="171"/>
     </row>
-    <row r="70" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="146">
         <v>58.5</v>
       </c>
@@ -42356,7 +42343,7 @@
       <c r="AI70" s="1"/>
       <c r="AJ70" s="171"/>
     </row>
-    <row r="71" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="146">
         <v>59.5</v>
       </c>
@@ -42408,7 +42395,7 @@
       <c r="AI71" s="1"/>
       <c r="AJ71" s="171"/>
     </row>
-    <row r="72" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="146">
         <v>60.5</v>
       </c>
@@ -42460,7 +42447,7 @@
       <c r="AI72" s="1"/>
       <c r="AJ72" s="171"/>
     </row>
-    <row r="73" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="146">
         <v>61.5</v>
       </c>
@@ -42512,7 +42499,7 @@
       <c r="AI73" s="1"/>
       <c r="AJ73" s="171"/>
     </row>
-    <row r="74" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="146">
         <v>62.5</v>
       </c>
@@ -42564,7 +42551,7 @@
       <c r="AI74" s="1"/>
       <c r="AJ74" s="171"/>
     </row>
-    <row r="75" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="146">
         <v>63.5</v>
       </c>
@@ -42616,7 +42603,7 @@
       <c r="AI75" s="1"/>
       <c r="AJ75" s="171"/>
     </row>
-    <row r="76" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="146">
         <v>64.5</v>
       </c>
@@ -42668,7 +42655,7 @@
       <c r="AI76" s="1"/>
       <c r="AJ76" s="171"/>
     </row>
-    <row r="77" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="146">
         <v>65.5</v>
       </c>
@@ -42720,7 +42707,7 @@
       <c r="AI77" s="1"/>
       <c r="AJ77" s="171"/>
     </row>
-    <row r="78" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="146">
         <v>66.5</v>
       </c>
@@ -42772,7 +42759,7 @@
       <c r="AI78" s="1"/>
       <c r="AJ78" s="171"/>
     </row>
-    <row r="79" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="146">
         <v>67.5</v>
       </c>
@@ -42824,7 +42811,7 @@
       <c r="AI79" s="1"/>
       <c r="AJ79" s="171"/>
     </row>
-    <row r="80" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="146">
         <v>68.5</v>
       </c>
@@ -42876,7 +42863,7 @@
       <c r="AI80" s="1"/>
       <c r="AJ80" s="171"/>
     </row>
-    <row r="81" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="146">
         <v>69.5</v>
       </c>
@@ -42928,7 +42915,7 @@
       <c r="AI81" s="1"/>
       <c r="AJ81" s="171"/>
     </row>
-    <row r="82" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="146">
         <v>70.5</v>
       </c>
@@ -42980,7 +42967,7 @@
       <c r="AI82" s="1"/>
       <c r="AJ82" s="171"/>
     </row>
-    <row r="83" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="146">
         <v>71.5</v>
       </c>
@@ -43032,7 +43019,7 @@
       <c r="AI83" s="1"/>
       <c r="AJ83" s="171"/>
     </row>
-    <row r="84" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="147">
         <v>72.5</v>
       </c>
@@ -43084,7 +43071,7 @@
       <c r="AI84" s="1"/>
       <c r="AJ84" s="171"/>
     </row>
-    <row r="85" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="147">
         <v>73.5</v>
       </c>
@@ -43136,7 +43123,7 @@
       <c r="AI85" s="1"/>
       <c r="AJ85" s="171"/>
     </row>
-    <row r="86" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="147">
         <v>74.5</v>
       </c>
@@ -43188,7 +43175,7 @@
       <c r="AI86" s="1"/>
       <c r="AJ86" s="171"/>
     </row>
-    <row r="87" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="147">
         <v>75.5</v>
       </c>
@@ -43240,7 +43227,7 @@
       <c r="AI87" s="1"/>
       <c r="AJ87" s="171"/>
     </row>
-    <row r="88" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="147">
         <v>76.5</v>
       </c>
@@ -43292,7 +43279,7 @@
       <c r="AI88" s="1"/>
       <c r="AJ88" s="171"/>
     </row>
-    <row r="89" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="147">
         <v>77.5</v>
       </c>
@@ -43344,7 +43331,7 @@
       <c r="AI89" s="1"/>
       <c r="AJ89" s="171"/>
     </row>
-    <row r="90" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="147">
         <v>78.5</v>
       </c>
@@ -43396,7 +43383,7 @@
       <c r="AI90" s="1"/>
       <c r="AJ90" s="171"/>
     </row>
-    <row r="91" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="147">
         <v>79.5</v>
       </c>
@@ -43448,7 +43435,7 @@
       <c r="AI91" s="1"/>
       <c r="AJ91" s="171"/>
     </row>
-    <row r="92" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="147">
         <v>80.5</v>
       </c>
@@ -43500,7 +43487,7 @@
       <c r="AI92" s="1"/>
       <c r="AJ92" s="171"/>
     </row>
-    <row r="93" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="147">
         <v>81.5</v>
       </c>
@@ -43552,7 +43539,7 @@
       <c r="AI93" s="1"/>
       <c r="AJ93" s="171"/>
     </row>
-    <row r="94" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="147">
         <v>82.5</v>
       </c>
@@ -43604,7 +43591,7 @@
       <c r="AI94" s="1"/>
       <c r="AJ94" s="171"/>
     </row>
-    <row r="95" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="147">
         <v>83.5</v>
       </c>
@@ -43656,7 +43643,7 @@
       <c r="AI95" s="1"/>
       <c r="AJ95" s="171"/>
     </row>
-    <row r="96" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="147">
         <v>84.5</v>
       </c>
@@ -43708,7 +43695,7 @@
       <c r="AI96" s="1"/>
       <c r="AJ96" s="171"/>
     </row>
-    <row r="97" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="147">
         <v>85.5</v>
       </c>
@@ -43760,7 +43747,7 @@
       <c r="AI97" s="1"/>
       <c r="AJ97" s="171"/>
     </row>
-    <row r="98" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="147">
         <v>86.5</v>
       </c>
@@ -43812,7 +43799,7 @@
       <c r="AI98" s="1"/>
       <c r="AJ98" s="171"/>
     </row>
-    <row r="99" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="147">
         <v>87.5</v>
       </c>
@@ -43864,7 +43851,7 @@
       <c r="AI99" s="1"/>
       <c r="AJ99" s="171"/>
     </row>
-    <row r="100" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="147">
         <v>88.5</v>
       </c>
@@ -43916,7 +43903,7 @@
       <c r="AI100" s="1"/>
       <c r="AJ100" s="171"/>
     </row>
-    <row r="101" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="147">
         <v>89.5</v>
       </c>
@@ -43968,7 +43955,7 @@
       <c r="AI101" s="1"/>
       <c r="AJ101" s="171"/>
     </row>
-    <row r="102" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="147">
         <v>90.5</v>
       </c>
@@ -44020,7 +44007,7 @@
       <c r="AI102" s="1"/>
       <c r="AJ102" s="171"/>
     </row>
-    <row r="103" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="147">
         <v>91.5</v>
       </c>
@@ -44072,7 +44059,7 @@
       <c r="AI103" s="1"/>
       <c r="AJ103" s="171"/>
     </row>
-    <row r="104" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="147">
         <v>92.5</v>
       </c>
@@ -44124,7 +44111,7 @@
       <c r="AI104" s="1"/>
       <c r="AJ104" s="171"/>
     </row>
-    <row r="105" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="147">
         <v>93.5</v>
       </c>
@@ -44176,7 +44163,7 @@
       <c r="AI105" s="1"/>
       <c r="AJ105" s="171"/>
     </row>
-    <row r="106" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="147">
         <v>94.5</v>
       </c>
@@ -44228,7 +44215,7 @@
       <c r="AI106" s="1"/>
       <c r="AJ106" s="171"/>
     </row>
-    <row r="107" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="147">
         <v>95.5</v>
       </c>
@@ -44280,7 +44267,7 @@
       <c r="AI107" s="1"/>
       <c r="AJ107" s="171"/>
     </row>
-    <row r="108" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="148">
         <v>96.5</v>
       </c>
@@ -44332,7 +44319,7 @@
       <c r="AI108" s="1"/>
       <c r="AJ108" s="171"/>
     </row>
-    <row r="109" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="148">
         <v>97.5</v>
       </c>
@@ -44384,7 +44371,7 @@
       <c r="AI109" s="1"/>
       <c r="AJ109" s="171"/>
     </row>
-    <row r="110" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="148">
         <v>98.5</v>
       </c>
@@ -44436,7 +44423,7 @@
       <c r="AI110" s="1"/>
       <c r="AJ110" s="171"/>
     </row>
-    <row r="111" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="148">
         <v>99.5</v>
       </c>
@@ -44488,7 +44475,7 @@
       <c r="AI111" s="1"/>
       <c r="AJ111" s="171"/>
     </row>
-    <row r="112" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="148">
         <v>100.5</v>
       </c>
@@ -44540,7 +44527,7 @@
       <c r="AI112" s="1"/>
       <c r="AJ112" s="171"/>
     </row>
-    <row r="113" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="148">
         <v>101.5</v>
       </c>
@@ -44592,7 +44579,7 @@
       <c r="AI113" s="1"/>
       <c r="AJ113" s="171"/>
     </row>
-    <row r="114" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="148">
         <v>102.5</v>
       </c>
@@ -44644,7 +44631,7 @@
       <c r="AI114" s="1"/>
       <c r="AJ114" s="171"/>
     </row>
-    <row r="115" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="148">
         <v>103.5</v>
       </c>
@@ -44696,7 +44683,7 @@
       <c r="AI115" s="1"/>
       <c r="AJ115" s="171"/>
     </row>
-    <row r="116" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="148">
         <v>104.5</v>
       </c>
@@ -44748,7 +44735,7 @@
       <c r="AI116" s="1"/>
       <c r="AJ116" s="171"/>
     </row>
-    <row r="117" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="148">
         <v>105.5</v>
       </c>
@@ -44800,7 +44787,7 @@
       <c r="AI117" s="1"/>
       <c r="AJ117" s="171"/>
     </row>
-    <row r="118" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="148">
         <v>106.5</v>
       </c>
@@ -44852,7 +44839,7 @@
       <c r="AI118" s="1"/>
       <c r="AJ118" s="171"/>
     </row>
-    <row r="119" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="148">
         <v>107.5</v>
       </c>
@@ -44904,7 +44891,7 @@
       <c r="AI119" s="1"/>
       <c r="AJ119" s="171"/>
     </row>
-    <row r="120" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="148">
         <v>108.5</v>
       </c>
@@ -44956,7 +44943,7 @@
       <c r="AI120" s="1"/>
       <c r="AJ120" s="171"/>
     </row>
-    <row r="121" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="148">
         <v>109.5</v>
       </c>
@@ -45008,7 +44995,7 @@
       <c r="AI121" s="1"/>
       <c r="AJ121" s="171"/>
     </row>
-    <row r="122" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="148">
         <v>110.5</v>
       </c>
@@ -45060,7 +45047,7 @@
       <c r="AI122" s="1"/>
       <c r="AJ122" s="171"/>
     </row>
-    <row r="123" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="148">
         <v>111.5</v>
       </c>
@@ -45112,7 +45099,7 @@
       <c r="AI123" s="1"/>
       <c r="AJ123" s="171"/>
     </row>
-    <row r="124" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="148">
         <v>112.5</v>
       </c>
@@ -45164,7 +45151,7 @@
       <c r="AI124" s="1"/>
       <c r="AJ124" s="171"/>
     </row>
-    <row r="125" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="148">
         <v>113.5</v>
       </c>
@@ -45216,7 +45203,7 @@
       <c r="AI125" s="1"/>
       <c r="AJ125" s="171"/>
     </row>
-    <row r="126" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="148">
         <v>114.5</v>
       </c>
@@ -45268,7 +45255,7 @@
       <c r="AI126" s="1"/>
       <c r="AJ126" s="171"/>
     </row>
-    <row r="127" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="148">
         <v>115.5</v>
       </c>
@@ -45320,7 +45307,7 @@
       <c r="AI127" s="1"/>
       <c r="AJ127" s="171"/>
     </row>
-    <row r="128" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="148">
         <v>116.5</v>
       </c>
@@ -45372,7 +45359,7 @@
       <c r="AI128" s="1"/>
       <c r="AJ128" s="171"/>
     </row>
-    <row r="129" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="148">
         <v>117.5</v>
       </c>
@@ -45424,7 +45411,7 @@
       <c r="AI129" s="1"/>
       <c r="AJ129" s="171"/>
     </row>
-    <row r="130" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="148">
         <v>118.5</v>
       </c>
@@ -45476,7 +45463,7 @@
       <c r="AI130" s="1"/>
       <c r="AJ130" s="171"/>
     </row>
-    <row r="131" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="148">
         <v>119.5</v>
       </c>
@@ -45528,7 +45515,7 @@
       <c r="AI131" s="1"/>
       <c r="AJ131" s="171"/>
     </row>
-    <row r="132" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="147">
         <v>120.5</v>
       </c>
@@ -45580,7 +45567,7 @@
       <c r="AI132" s="1"/>
       <c r="AJ132" s="171"/>
     </row>
-    <row r="133" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="147">
         <v>121.5</v>
       </c>
@@ -45632,7 +45619,7 @@
       <c r="AI133" s="1"/>
       <c r="AJ133" s="171"/>
     </row>
-    <row r="134" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="147">
         <v>122.5</v>
       </c>
@@ -45684,7 +45671,7 @@
       <c r="AI134" s="1"/>
       <c r="AJ134" s="171"/>
     </row>
-    <row r="135" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="147">
         <v>123.5</v>
       </c>
@@ -45736,7 +45723,7 @@
       <c r="AI135" s="1"/>
       <c r="AJ135" s="171"/>
     </row>
-    <row r="136" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="147">
         <v>124.5</v>
       </c>
@@ -45788,7 +45775,7 @@
       <c r="AI136" s="1"/>
       <c r="AJ136" s="171"/>
     </row>
-    <row r="137" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="147">
         <v>125.5</v>
       </c>
@@ -45840,7 +45827,7 @@
       <c r="AI137" s="1"/>
       <c r="AJ137" s="171"/>
     </row>
-    <row r="138" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="147">
         <v>126.5</v>
       </c>
@@ -45892,7 +45879,7 @@
       <c r="AI138" s="1"/>
       <c r="AJ138" s="171"/>
     </row>
-    <row r="139" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="147">
         <v>127.5</v>
       </c>
@@ -45944,7 +45931,7 @@
       <c r="AI139" s="1"/>
       <c r="AJ139" s="171"/>
     </row>
-    <row r="140" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="147">
         <v>128.5</v>
       </c>
@@ -45996,7 +45983,7 @@
       <c r="AI140" s="1"/>
       <c r="AJ140" s="171"/>
     </row>
-    <row r="141" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="147">
         <v>129.5</v>
       </c>
@@ -46048,7 +46035,7 @@
       <c r="AI141" s="1"/>
       <c r="AJ141" s="171"/>
     </row>
-    <row r="142" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="147">
         <v>130.5</v>
       </c>
@@ -46100,7 +46087,7 @@
       <c r="AI142" s="1"/>
       <c r="AJ142" s="171"/>
     </row>
-    <row r="143" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="147">
         <v>131.5</v>
       </c>
@@ -46152,7 +46139,7 @@
       <c r="AI143" s="1"/>
       <c r="AJ143" s="171"/>
     </row>
-    <row r="144" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="147">
         <v>132.5</v>
       </c>
@@ -46204,7 +46191,7 @@
       <c r="AI144" s="1"/>
       <c r="AJ144" s="171"/>
     </row>
-    <row r="145" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="147">
         <v>133.5</v>
       </c>
@@ -46256,7 +46243,7 @@
       <c r="AI145" s="1"/>
       <c r="AJ145" s="171"/>
     </row>
-    <row r="146" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="147">
         <v>134.5</v>
       </c>
@@ -46308,7 +46295,7 @@
       <c r="AI146" s="1"/>
       <c r="AJ146" s="171"/>
     </row>
-    <row r="147" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="147">
         <v>135.5</v>
       </c>
@@ -46360,7 +46347,7 @@
       <c r="AI147" s="1"/>
       <c r="AJ147" s="171"/>
     </row>
-    <row r="148" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="147">
         <v>136.5</v>
       </c>
@@ -46412,7 +46399,7 @@
       <c r="AI148" s="1"/>
       <c r="AJ148" s="171"/>
     </row>
-    <row r="149" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="147">
         <v>137.5</v>
       </c>
@@ -46464,7 +46451,7 @@
       <c r="AI149" s="1"/>
       <c r="AJ149" s="171"/>
     </row>
-    <row r="150" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="147">
         <v>138.5</v>
       </c>
@@ -46516,7 +46503,7 @@
       <c r="AI150" s="1"/>
       <c r="AJ150" s="171"/>
     </row>
-    <row r="151" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="147">
         <v>139.5</v>
       </c>
@@ -46568,7 +46555,7 @@
       <c r="AI151" s="1"/>
       <c r="AJ151" s="171"/>
     </row>
-    <row r="152" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="147">
         <v>140.5</v>
       </c>
@@ -46620,7 +46607,7 @@
       <c r="AI152" s="1"/>
       <c r="AJ152" s="171"/>
     </row>
-    <row r="153" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="147">
         <v>141.5</v>
       </c>
@@ -46672,7 +46659,7 @@
       <c r="AI153" s="1"/>
       <c r="AJ153" s="171"/>
     </row>
-    <row r="154" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="147">
         <v>142.5</v>
       </c>
@@ -46724,7 +46711,7 @@
       <c r="AI154" s="1"/>
       <c r="AJ154" s="171"/>
     </row>
-    <row r="155" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="147">
         <v>143.5</v>
       </c>
@@ -46776,7 +46763,7 @@
       <c r="AI155" s="1"/>
       <c r="AJ155" s="171"/>
     </row>
-    <row r="156" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="148">
         <v>144.5</v>
       </c>
@@ -46828,7 +46815,7 @@
       <c r="AI156" s="1"/>
       <c r="AJ156" s="171"/>
     </row>
-    <row r="157" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="148">
         <v>145.5</v>
       </c>
@@ -46880,7 +46867,7 @@
       <c r="AI157" s="1"/>
       <c r="AJ157" s="171"/>
     </row>
-    <row r="158" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="148">
         <v>146.5</v>
       </c>
@@ -46932,7 +46919,7 @@
       <c r="AI158" s="1"/>
       <c r="AJ158" s="171"/>
     </row>
-    <row r="159" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="148">
         <v>147.5</v>
       </c>
@@ -46984,7 +46971,7 @@
       <c r="AI159" s="1"/>
       <c r="AJ159" s="171"/>
     </row>
-    <row r="160" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="148">
         <v>148.5</v>
       </c>
@@ -47036,7 +47023,7 @@
       <c r="AI160" s="1"/>
       <c r="AJ160" s="171"/>
     </row>
-    <row r="161" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="148">
         <v>149.5</v>
       </c>
@@ -47088,7 +47075,7 @@
       <c r="AI161" s="1"/>
       <c r="AJ161" s="171"/>
     </row>
-    <row r="162" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="148">
         <v>150.5</v>
       </c>
@@ -47140,7 +47127,7 @@
       <c r="AI162" s="1"/>
       <c r="AJ162" s="171"/>
     </row>
-    <row r="163" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="148">
         <v>151.5</v>
       </c>
@@ -47192,7 +47179,7 @@
       <c r="AI163" s="1"/>
       <c r="AJ163" s="171"/>
     </row>
-    <row r="164" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="148">
         <v>152.5</v>
       </c>
@@ -47244,7 +47231,7 @@
       <c r="AI164" s="1"/>
       <c r="AJ164" s="171"/>
     </row>
-    <row r="165" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="148">
         <v>153.5</v>
       </c>
@@ -47296,7 +47283,7 @@
       <c r="AI165" s="1"/>
       <c r="AJ165" s="171"/>
     </row>
-    <row r="166" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="148">
         <v>154.5</v>
       </c>
@@ -47348,7 +47335,7 @@
       <c r="AI166" s="1"/>
       <c r="AJ166" s="171"/>
     </row>
-    <row r="167" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="148">
         <v>155.5</v>
       </c>
@@ -47400,7 +47387,7 @@
       <c r="AI167" s="1"/>
       <c r="AJ167" s="171"/>
     </row>
-    <row r="168" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="148">
         <v>156.5</v>
       </c>
@@ -47452,7 +47439,7 @@
       <c r="AI168" s="1"/>
       <c r="AJ168" s="171"/>
     </row>
-    <row r="169" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="148">
         <v>157.5</v>
       </c>
@@ -47504,7 +47491,7 @@
       <c r="AI169" s="1"/>
       <c r="AJ169" s="171"/>
     </row>
-    <row r="170" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="148">
         <v>158.5</v>
       </c>
@@ -47556,7 +47543,7 @@
       <c r="AI170" s="1"/>
       <c r="AJ170" s="171"/>
     </row>
-    <row r="171" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="148">
         <v>159.5</v>
       </c>
@@ -47608,7 +47595,7 @@
       <c r="AI171" s="1"/>
       <c r="AJ171" s="171"/>
     </row>
-    <row r="172" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="148">
         <v>160.5</v>
       </c>
@@ -47660,7 +47647,7 @@
       <c r="AI172" s="1"/>
       <c r="AJ172" s="171"/>
     </row>
-    <row r="173" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="148">
         <v>161.5</v>
       </c>
@@ -47712,7 +47699,7 @@
       <c r="AI173" s="1"/>
       <c r="AJ173" s="171"/>
     </row>
-    <row r="174" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="148">
         <v>162.5</v>
       </c>
@@ -47764,7 +47751,7 @@
       <c r="AI174" s="1"/>
       <c r="AJ174" s="171"/>
     </row>
-    <row r="175" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="148">
         <v>163.5</v>
       </c>
@@ -47816,7 +47803,7 @@
       <c r="AI175" s="1"/>
       <c r="AJ175" s="171"/>
     </row>
-    <row r="176" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="148">
         <v>164.5</v>
       </c>
@@ -47868,7 +47855,7 @@
       <c r="AI176" s="1"/>
       <c r="AJ176" s="171"/>
     </row>
-    <row r="177" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="148">
         <v>165.5</v>
       </c>
@@ -47920,7 +47907,7 @@
       <c r="AI177" s="1"/>
       <c r="AJ177" s="171"/>
     </row>
-    <row r="178" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="148">
         <v>166.5</v>
       </c>
@@ -47972,7 +47959,7 @@
       <c r="AI178" s="1"/>
       <c r="AJ178" s="171"/>
     </row>
-    <row r="179" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="148">
         <v>167.5</v>
       </c>
@@ -48024,7 +48011,7 @@
       <c r="AI179" s="1"/>
       <c r="AJ179" s="171"/>
     </row>
-    <row r="180" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="147">
         <v>168.5</v>
       </c>
@@ -48076,7 +48063,7 @@
       <c r="AI180" s="1"/>
       <c r="AJ180" s="171"/>
     </row>
-    <row r="181" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="147">
         <v>169.5</v>
       </c>
@@ -48128,7 +48115,7 @@
       <c r="AI181" s="1"/>
       <c r="AJ181" s="171"/>
     </row>
-    <row r="182" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="147">
         <v>170.5</v>
       </c>
@@ -48180,7 +48167,7 @@
       <c r="AI182" s="1"/>
       <c r="AJ182" s="171"/>
     </row>
-    <row r="183" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="147">
         <v>171.5</v>
       </c>
@@ -48232,7 +48219,7 @@
       <c r="AI183" s="1"/>
       <c r="AJ183" s="171"/>
     </row>
-    <row r="184" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="147">
         <v>172.5</v>
       </c>
@@ -48284,7 +48271,7 @@
       <c r="AI184" s="1"/>
       <c r="AJ184" s="171"/>
     </row>
-    <row r="185" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="147">
         <v>173.5</v>
       </c>
@@ -48336,7 +48323,7 @@
       <c r="AI185" s="1"/>
       <c r="AJ185" s="171"/>
     </row>
-    <row r="186" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="147">
         <v>174.5</v>
       </c>
@@ -48388,7 +48375,7 @@
       <c r="AI186" s="1"/>
       <c r="AJ186" s="171"/>
     </row>
-    <row r="187" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="147">
         <v>175.5</v>
       </c>
@@ -48440,7 +48427,7 @@
       <c r="AI187" s="1"/>
       <c r="AJ187" s="171"/>
     </row>
-    <row r="188" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="147">
         <v>176.5</v>
       </c>
@@ -48492,7 +48479,7 @@
       <c r="AI188" s="1"/>
       <c r="AJ188" s="171"/>
     </row>
-    <row r="189" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="147">
         <v>177.5</v>
       </c>
@@ -48544,7 +48531,7 @@
       <c r="AI189" s="1"/>
       <c r="AJ189" s="171"/>
     </row>
-    <row r="190" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="147">
         <v>178.5</v>
       </c>
@@ -48596,7 +48583,7 @@
       <c r="AI190" s="1"/>
       <c r="AJ190" s="171"/>
     </row>
-    <row r="191" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="147">
         <v>179.5</v>
       </c>
@@ -48648,7 +48635,7 @@
       <c r="AI191" s="1"/>
       <c r="AJ191" s="171"/>
     </row>
-    <row r="192" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="147">
         <v>180.5</v>
       </c>
@@ -48700,7 +48687,7 @@
       <c r="AI192" s="1"/>
       <c r="AJ192" s="171"/>
     </row>
-    <row r="193" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="147">
         <v>181.5</v>
       </c>
@@ -48752,7 +48739,7 @@
       <c r="AI193" s="1"/>
       <c r="AJ193" s="171"/>
     </row>
-    <row r="194" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="147">
         <v>182.5</v>
       </c>
@@ -48804,7 +48791,7 @@
       <c r="AI194" s="1"/>
       <c r="AJ194" s="171"/>
     </row>
-    <row r="195" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="147">
         <v>183.5</v>
       </c>
@@ -48856,7 +48843,7 @@
       <c r="AI195" s="1"/>
       <c r="AJ195" s="171"/>
     </row>
-    <row r="196" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="147">
         <v>184.5</v>
       </c>
@@ -48908,7 +48895,7 @@
       <c r="AI196" s="1"/>
       <c r="AJ196" s="171"/>
     </row>
-    <row r="197" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="147">
         <v>185.5</v>
       </c>
@@ -48960,7 +48947,7 @@
       <c r="AI197" s="1"/>
       <c r="AJ197" s="171"/>
     </row>
-    <row r="198" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="147">
         <v>186.5</v>
       </c>
@@ -49012,7 +48999,7 @@
       <c r="AI198" s="1"/>
       <c r="AJ198" s="171"/>
     </row>
-    <row r="199" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="147">
         <v>187.5</v>
       </c>
@@ -49064,7 +49051,7 @@
       <c r="AI199" s="1"/>
       <c r="AJ199" s="171"/>
     </row>
-    <row r="200" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="147">
         <v>188.5</v>
       </c>
@@ -49116,7 +49103,7 @@
       <c r="AI200" s="1"/>
       <c r="AJ200" s="171"/>
     </row>
-    <row r="201" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="147">
         <v>189.5</v>
       </c>
@@ -49168,7 +49155,7 @@
       <c r="AI201" s="1"/>
       <c r="AJ201" s="171"/>
     </row>
-    <row r="202" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="147">
         <v>190.5</v>
       </c>
@@ -49220,7 +49207,7 @@
       <c r="AI202" s="1"/>
       <c r="AJ202" s="171"/>
     </row>
-    <row r="203" spans="1:36" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:36" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="149">
         <v>191.5</v>
       </c>
@@ -49272,7 +49259,7 @@
       <c r="AI203" s="1"/>
       <c r="AJ203" s="171"/>
     </row>
-    <row r="204" spans="1:36" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:36" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -49486,13 +49473,13 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>36</xdr:col>
-                <xdr:colOff>542925</xdr:colOff>
+                <xdr:colOff>546100</xdr:colOff>
                 <xdr:row>30</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
+                <xdr:rowOff>12700</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>41</xdr:col>
-                <xdr:colOff>200025</xdr:colOff>
+                <xdr:colOff>203200</xdr:colOff>
                 <xdr:row>32</xdr:row>
                 <xdr:rowOff>133350</xdr:rowOff>
               </to>
@@ -49511,15 +49498,15 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>29</xdr:col>
-                <xdr:colOff>485775</xdr:colOff>
+                <xdr:colOff>488950</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>66675</xdr:rowOff>
+                <xdr:rowOff>69850</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>35</xdr:col>
                 <xdr:colOff>190500</xdr:colOff>
                 <xdr:row>4</xdr:row>
-                <xdr:rowOff>85725</xdr:rowOff>
+                <xdr:rowOff>88900</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -49544,7 +49531,7 @@
                 <xdr:col>41</xdr:col>
                 <xdr:colOff>400050</xdr:colOff>
                 <xdr:row>29</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -49563,13 +49550,13 @@
                 <xdr:col>37</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>43</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -49588,56 +49575,56 @@
   <dimension ref="A1:AT204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" customWidth="1"/>
-    <col min="23" max="23" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.453125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.1796875" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
+    <col min="23" max="23" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="7" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="7" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="23.85546875" style="1" customWidth="1"/>
+    <col min="30" max="30" width="23.81640625" style="1" customWidth="1"/>
     <col min="31" max="31" width="6" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.140625" style="7" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="7.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="6.42578125" customWidth="1"/>
-    <col min="39" max="39" width="7.140625" customWidth="1"/>
-    <col min="40" max="42" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.1796875" style="7" customWidth="1"/>
+    <col min="33" max="33" width="14.26953125" style="1" customWidth="1"/>
+    <col min="34" max="34" width="7.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.453125" customWidth="1"/>
+    <col min="39" max="39" width="7.1796875" customWidth="1"/>
+    <col min="40" max="42" width="4.7265625" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.453125" style="3" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="7" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>62</v>
       </c>
@@ -49671,7 +49658,7 @@
       <c r="Y1" s="27"/>
       <c r="Z1" s="28"/>
     </row>
-    <row r="2" spans="1:46" ht="20.25" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:46" ht="19" thickTop="1" x14ac:dyDescent="0.45">
       <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
@@ -49751,7 +49738,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:46" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
@@ -49831,7 +49818,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="46">
         <v>2</v>
       </c>
@@ -49866,7 +49853,7 @@
         <v>101.2</v>
       </c>
       <c r="K4" s="48">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="L4" s="49">
         <v>0.4</v>
@@ -49915,7 +49902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:46" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E5" s="1" t="s">
         <v>110</v>
       </c>
@@ -49936,19 +49923,19 @@
       <c r="W5" s="3"/>
       <c r="X5"/>
     </row>
-    <row r="6" spans="1:46" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="16" thickTop="1" x14ac:dyDescent="0.35">
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F6" s="1">
         <v>2</v>
       </c>
       <c r="M6" s="6"/>
     </row>
-    <row r="7" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:46" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="M7" s="6"/>
     </row>
-    <row r="8" spans="1:46" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="10" t="s">
         <v>38</v>
       </c>
@@ -50007,24 +49994,24 @@
       <c r="AS8"/>
       <c r="AT8"/>
     </row>
-    <row r="9" spans="1:46" ht="18.75" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:46" ht="17" thickTop="1" x14ac:dyDescent="0.45">
       <c r="C9" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="D9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="E9" s="73" t="s">
+      <c r="F9" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="H9" s="74" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I9" s="83" t="s">
         <v>69</v>
@@ -50102,7 +50089,7 @@
       <c r="AS9"/>
       <c r="AT9"/>
     </row>
-    <row r="10" spans="1:46" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="17" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="76" t="s">
         <v>0</v>
       </c>
@@ -50219,30 +50206,30 @@
       <c r="AS10"/>
       <c r="AT10"/>
     </row>
-    <row r="11" spans="1:46" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:46" ht="17.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="69" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C11" s="71" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="F11" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" s="74" t="s">
         <v>126</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="F11" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="H11" s="74" t="s">
-        <v>127</v>
       </c>
       <c r="I11" s="96" t="s">
         <v>27</v>
@@ -50257,7 +50244,7 @@
         <v>14</v>
       </c>
       <c r="M11" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N11" s="90" t="s">
         <v>29</v>
@@ -50281,19 +50268,19 @@
         <v>33</v>
       </c>
       <c r="U11" s="163" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="V11" s="108" t="s">
         <v>91</v>
       </c>
       <c r="W11" s="102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="X11" s="102" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Y11" s="102" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Z11" s="104" t="s">
         <v>96</v>
@@ -50308,22 +50295,22 @@
         <v>22</v>
       </c>
       <c r="AD11" s="104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AE11" s="104" t="s">
         <v>98</v>
       </c>
       <c r="AF11" s="104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AG11" s="104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AH11" s="123" t="s">
         <v>35</v>
       </c>
       <c r="AI11" s="123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AJ11" s="121" t="s">
         <v>80</v>
@@ -50336,7 +50323,7 @@
       <c r="AS11"/>
       <c r="AT11"/>
     </row>
-    <row r="12" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="165">
         <v>0.5</v>
       </c>
@@ -50398,7 +50385,7 @@
       <c r="AJ12" s="191"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="143">
         <v>1.5</v>
       </c>
@@ -50454,7 +50441,7 @@
       <c r="AJ13" s="171"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="143">
         <v>2.5</v>
       </c>
@@ -50507,7 +50494,7 @@
       <c r="AJ14" s="171"/>
       <c r="AK14" s="1"/>
     </row>
-    <row r="15" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="143">
         <v>3.5</v>
       </c>
@@ -50560,7 +50547,7 @@
       <c r="AJ15" s="171"/>
       <c r="AK15" s="1"/>
     </row>
-    <row r="16" spans="1:46" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:46" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="143">
         <v>4.5</v>
       </c>
@@ -50613,7 +50600,7 @@
       <c r="AJ16" s="171"/>
       <c r="AK16" s="1"/>
     </row>
-    <row r="17" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="143">
         <v>5.5</v>
       </c>
@@ -50666,7 +50653,7 @@
       <c r="AJ17" s="171"/>
       <c r="AK17" s="1"/>
     </row>
-    <row r="18" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="143">
         <v>6.5</v>
       </c>
@@ -50719,7 +50706,7 @@
       <c r="AJ18" s="171"/>
       <c r="AK18" s="1"/>
     </row>
-    <row r="19" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="143">
         <v>7.5</v>
       </c>
@@ -50772,7 +50759,7 @@
       <c r="AJ19" s="171"/>
       <c r="AK19" s="1"/>
     </row>
-    <row r="20" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="143">
         <v>8.5</v>
       </c>
@@ -50825,7 +50812,7 @@
       <c r="AJ20" s="171"/>
       <c r="AK20" s="1"/>
     </row>
-    <row r="21" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="143">
         <v>9.5</v>
       </c>
@@ -50878,7 +50865,7 @@
       <c r="AJ21" s="171"/>
       <c r="AK21" s="1"/>
     </row>
-    <row r="22" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="143">
         <v>10.5</v>
       </c>
@@ -50931,7 +50918,7 @@
       <c r="AJ22" s="171"/>
       <c r="AK22" s="1"/>
     </row>
-    <row r="23" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="143">
         <v>11.5</v>
       </c>
@@ -50984,7 +50971,7 @@
       <c r="AJ23" s="171"/>
       <c r="AK23" s="1"/>
     </row>
-    <row r="24" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="143">
         <v>12.5</v>
       </c>
@@ -51037,7 +51024,7 @@
       <c r="AJ24" s="171"/>
       <c r="AK24" s="1"/>
     </row>
-    <row r="25" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="143">
         <v>13.5</v>
       </c>
@@ -51090,7 +51077,7 @@
       <c r="AJ25" s="171"/>
       <c r="AK25" s="1"/>
     </row>
-    <row r="26" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="143">
         <v>14.5</v>
       </c>
@@ -51143,7 +51130,7 @@
       <c r="AJ26" s="171"/>
       <c r="AK26" s="1"/>
     </row>
-    <row r="27" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="143">
         <v>15.5</v>
       </c>
@@ -51196,7 +51183,7 @@
       <c r="AJ27" s="171"/>
       <c r="AK27" s="1"/>
     </row>
-    <row r="28" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="143">
         <v>16.5</v>
       </c>
@@ -51249,7 +51236,7 @@
       <c r="AJ28" s="171"/>
       <c r="AK28" s="1"/>
     </row>
-    <row r="29" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="143">
         <v>17.5</v>
       </c>
@@ -51302,7 +51289,7 @@
       <c r="AJ29" s="171"/>
       <c r="AK29" s="1"/>
     </row>
-    <row r="30" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="143">
         <v>18.5</v>
       </c>
@@ -51355,7 +51342,7 @@
       <c r="AJ30" s="171"/>
       <c r="AK30" s="1"/>
     </row>
-    <row r="31" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="143">
         <v>19.5</v>
       </c>
@@ -51408,7 +51395,7 @@
       <c r="AJ31" s="171"/>
       <c r="AK31" s="1"/>
     </row>
-    <row r="32" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="143">
         <v>20.5</v>
       </c>
@@ -51461,7 +51448,7 @@
       <c r="AJ32" s="171"/>
       <c r="AK32" s="1"/>
     </row>
-    <row r="33" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="143">
         <v>21.5</v>
       </c>
@@ -51514,7 +51501,7 @@
       <c r="AJ33" s="171"/>
       <c r="AK33" s="1"/>
     </row>
-    <row r="34" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="143">
         <v>22.5</v>
       </c>
@@ -51567,7 +51554,7 @@
       <c r="AJ34" s="171"/>
       <c r="AK34" s="1"/>
     </row>
-    <row r="35" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="143">
         <v>23.5</v>
       </c>
@@ -51620,7 +51607,7 @@
       <c r="AJ35" s="171"/>
       <c r="AK35" s="1"/>
     </row>
-    <row r="36" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="145">
         <v>24.5</v>
       </c>
@@ -51673,7 +51660,7 @@
       <c r="AJ36" s="171"/>
       <c r="AK36" s="1"/>
     </row>
-    <row r="37" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="145">
         <v>25.5</v>
       </c>
@@ -51726,7 +51713,7 @@
       <c r="AJ37" s="171"/>
       <c r="AK37" s="1"/>
     </row>
-    <row r="38" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="145">
         <v>26.5</v>
       </c>
@@ -51779,7 +51766,7 @@
       <c r="AJ38" s="171"/>
       <c r="AK38" s="1"/>
     </row>
-    <row r="39" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="145">
         <v>27.5</v>
       </c>
@@ -51832,7 +51819,7 @@
       <c r="AJ39" s="171"/>
       <c r="AK39" s="1"/>
     </row>
-    <row r="40" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="145">
         <v>28.5</v>
       </c>
@@ -51885,7 +51872,7 @@
       <c r="AJ40" s="171"/>
       <c r="AK40" s="1"/>
     </row>
-    <row r="41" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="145">
         <v>29.5</v>
       </c>
@@ -51938,7 +51925,7 @@
       <c r="AJ41" s="171"/>
       <c r="AK41" s="1"/>
     </row>
-    <row r="42" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="145">
         <v>30.5</v>
       </c>
@@ -51991,7 +51978,7 @@
       <c r="AJ42" s="171"/>
       <c r="AK42" s="1"/>
     </row>
-    <row r="43" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="145">
         <v>31.5</v>
       </c>
@@ -52044,7 +52031,7 @@
       <c r="AJ43" s="171"/>
       <c r="AK43" s="1"/>
     </row>
-    <row r="44" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="145">
         <v>32.5</v>
       </c>
@@ -52097,7 +52084,7 @@
       <c r="AJ44" s="171"/>
       <c r="AK44" s="1"/>
     </row>
-    <row r="45" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="145">
         <v>33.5</v>
       </c>
@@ -52150,7 +52137,7 @@
       <c r="AJ45" s="171"/>
       <c r="AK45" s="1"/>
     </row>
-    <row r="46" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="145">
         <v>34.5</v>
       </c>
@@ -52203,7 +52190,7 @@
       <c r="AJ46" s="171"/>
       <c r="AK46" s="1"/>
     </row>
-    <row r="47" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="145">
         <v>35.5</v>
       </c>
@@ -52256,7 +52243,7 @@
       <c r="AJ47" s="171"/>
       <c r="AK47" s="1"/>
     </row>
-    <row r="48" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="145">
         <v>36.5</v>
       </c>
@@ -52309,7 +52296,7 @@
       <c r="AJ48" s="171"/>
       <c r="AK48" s="1"/>
     </row>
-    <row r="49" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="145">
         <v>37.5</v>
       </c>
@@ -52362,7 +52349,7 @@
       <c r="AJ49" s="171"/>
       <c r="AK49" s="1"/>
     </row>
-    <row r="50" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="145">
         <v>38.5</v>
       </c>
@@ -52415,7 +52402,7 @@
       <c r="AJ50" s="171"/>
       <c r="AK50" s="1"/>
     </row>
-    <row r="51" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="145">
         <v>39.5</v>
       </c>
@@ -52468,7 +52455,7 @@
       <c r="AJ51" s="171"/>
       <c r="AK51" s="1"/>
     </row>
-    <row r="52" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="145">
         <v>40.5</v>
       </c>
@@ -52521,7 +52508,7 @@
       <c r="AJ52" s="171"/>
       <c r="AK52" s="1"/>
     </row>
-    <row r="53" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="145">
         <v>41.5</v>
       </c>
@@ -52574,7 +52561,7 @@
       <c r="AJ53" s="171"/>
       <c r="AK53" s="1"/>
     </row>
-    <row r="54" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="145">
         <v>42.5</v>
       </c>
@@ -52627,7 +52614,7 @@
       <c r="AJ54" s="171"/>
       <c r="AK54" s="1"/>
     </row>
-    <row r="55" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="145">
         <v>43.5</v>
       </c>
@@ -52680,7 +52667,7 @@
       <c r="AJ55" s="171"/>
       <c r="AK55" s="1"/>
     </row>
-    <row r="56" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="145">
         <v>44.5</v>
       </c>
@@ -52733,7 +52720,7 @@
       <c r="AJ56" s="171"/>
       <c r="AK56" s="1"/>
     </row>
-    <row r="57" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="145">
         <v>45.5</v>
       </c>
@@ -52786,7 +52773,7 @@
       <c r="AJ57" s="171"/>
       <c r="AK57" s="1"/>
     </row>
-    <row r="58" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="145">
         <v>46.5</v>
       </c>
@@ -52839,7 +52826,7 @@
       <c r="AJ58" s="171"/>
       <c r="AK58" s="1"/>
     </row>
-    <row r="59" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="145">
         <v>47.5</v>
       </c>
@@ -52892,7 +52879,7 @@
       <c r="AJ59" s="171"/>
       <c r="AK59" s="1"/>
     </row>
-    <row r="60" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="146">
         <v>48.5</v>
       </c>
@@ -52945,7 +52932,7 @@
       <c r="AJ60" s="171"/>
       <c r="AK60" s="1"/>
     </row>
-    <row r="61" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="146">
         <v>49.5</v>
       </c>
@@ -52998,7 +52985,7 @@
       <c r="AJ61" s="171"/>
       <c r="AK61" s="1"/>
     </row>
-    <row r="62" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="146">
         <v>50.5</v>
       </c>
@@ -53051,7 +53038,7 @@
       <c r="AJ62" s="171"/>
       <c r="AK62" s="1"/>
     </row>
-    <row r="63" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="146">
         <v>51.5</v>
       </c>
@@ -53104,7 +53091,7 @@
       <c r="AJ63" s="171"/>
       <c r="AK63" s="1"/>
     </row>
-    <row r="64" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="146">
         <v>52.5</v>
       </c>
@@ -53157,7 +53144,7 @@
       <c r="AJ64" s="171"/>
       <c r="AK64" s="1"/>
     </row>
-    <row r="65" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="146">
         <v>53.5</v>
       </c>
@@ -53210,7 +53197,7 @@
       <c r="AJ65" s="171"/>
       <c r="AK65" s="1"/>
     </row>
-    <row r="66" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="146">
         <v>54.5</v>
       </c>
@@ -53263,7 +53250,7 @@
       <c r="AJ66" s="171"/>
       <c r="AK66" s="1"/>
     </row>
-    <row r="67" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="146">
         <v>55.5</v>
       </c>
@@ -53316,7 +53303,7 @@
       <c r="AJ67" s="171"/>
       <c r="AK67" s="1"/>
     </row>
-    <row r="68" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="146">
         <v>56.5</v>
       </c>
@@ -53369,7 +53356,7 @@
       <c r="AJ68" s="171"/>
       <c r="AK68" s="1"/>
     </row>
-    <row r="69" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="146">
         <v>57.5</v>
       </c>
@@ -53422,7 +53409,7 @@
       <c r="AJ69" s="171"/>
       <c r="AK69" s="1"/>
     </row>
-    <row r="70" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="146">
         <v>58.5</v>
       </c>
@@ -53475,7 +53462,7 @@
       <c r="AJ70" s="171"/>
       <c r="AK70" s="1"/>
     </row>
-    <row r="71" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="146">
         <v>59.5</v>
       </c>
@@ -53528,7 +53515,7 @@
       <c r="AJ71" s="171"/>
       <c r="AK71" s="1"/>
     </row>
-    <row r="72" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="146">
         <v>60.5</v>
       </c>
@@ -53581,7 +53568,7 @@
       <c r="AJ72" s="171"/>
       <c r="AK72" s="1"/>
     </row>
-    <row r="73" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="146">
         <v>61.5</v>
       </c>
@@ -53634,7 +53621,7 @@
       <c r="AJ73" s="171"/>
       <c r="AK73" s="1"/>
     </row>
-    <row r="74" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="146">
         <v>62.5</v>
       </c>
@@ -53687,7 +53674,7 @@
       <c r="AJ74" s="171"/>
       <c r="AK74" s="1"/>
     </row>
-    <row r="75" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="146">
         <v>63.5</v>
       </c>
@@ -53740,7 +53727,7 @@
       <c r="AJ75" s="171"/>
       <c r="AK75" s="1"/>
     </row>
-    <row r="76" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="146">
         <v>64.5</v>
       </c>
@@ -53793,7 +53780,7 @@
       <c r="AJ76" s="171"/>
       <c r="AK76" s="1"/>
     </row>
-    <row r="77" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="146">
         <v>65.5</v>
       </c>
@@ -53846,7 +53833,7 @@
       <c r="AJ77" s="171"/>
       <c r="AK77" s="1"/>
     </row>
-    <row r="78" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="146">
         <v>66.5</v>
       </c>
@@ -53899,7 +53886,7 @@
       <c r="AJ78" s="171"/>
       <c r="AK78" s="1"/>
     </row>
-    <row r="79" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="146">
         <v>67.5</v>
       </c>
@@ -53952,7 +53939,7 @@
       <c r="AJ79" s="171"/>
       <c r="AK79" s="1"/>
     </row>
-    <row r="80" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="146">
         <v>68.5</v>
       </c>
@@ -54005,7 +53992,7 @@
       <c r="AJ80" s="171"/>
       <c r="AK80" s="1"/>
     </row>
-    <row r="81" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="146">
         <v>69.5</v>
       </c>
@@ -54058,7 +54045,7 @@
       <c r="AJ81" s="171"/>
       <c r="AK81" s="1"/>
     </row>
-    <row r="82" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="146">
         <v>70.5</v>
       </c>
@@ -54111,7 +54098,7 @@
       <c r="AJ82" s="171"/>
       <c r="AK82" s="1"/>
     </row>
-    <row r="83" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="146">
         <v>71.5</v>
       </c>
@@ -54164,7 +54151,7 @@
       <c r="AJ83" s="171"/>
       <c r="AK83" s="1"/>
     </row>
-    <row r="84" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="147">
         <v>72.5</v>
       </c>
@@ -54217,7 +54204,7 @@
       <c r="AJ84" s="171"/>
       <c r="AK84" s="1"/>
     </row>
-    <row r="85" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="147">
         <v>73.5</v>
       </c>
@@ -54270,7 +54257,7 @@
       <c r="AJ85" s="171"/>
       <c r="AK85" s="1"/>
     </row>
-    <row r="86" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="147">
         <v>74.5</v>
       </c>
@@ -54323,7 +54310,7 @@
       <c r="AJ86" s="171"/>
       <c r="AK86" s="1"/>
     </row>
-    <row r="87" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="147">
         <v>75.5</v>
       </c>
@@ -54376,7 +54363,7 @@
       <c r="AJ87" s="171"/>
       <c r="AK87" s="1"/>
     </row>
-    <row r="88" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="147">
         <v>76.5</v>
       </c>
@@ -54429,7 +54416,7 @@
       <c r="AJ88" s="171"/>
       <c r="AK88" s="1"/>
     </row>
-    <row r="89" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="147">
         <v>77.5</v>
       </c>
@@ -54482,7 +54469,7 @@
       <c r="AJ89" s="171"/>
       <c r="AK89" s="1"/>
     </row>
-    <row r="90" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="147">
         <v>78.5</v>
       </c>
@@ -54535,7 +54522,7 @@
       <c r="AJ90" s="171"/>
       <c r="AK90" s="1"/>
     </row>
-    <row r="91" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="147">
         <v>79.5</v>
       </c>
@@ -54588,7 +54575,7 @@
       <c r="AJ91" s="171"/>
       <c r="AK91" s="1"/>
     </row>
-    <row r="92" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="147">
         <v>80.5</v>
       </c>
@@ -54641,7 +54628,7 @@
       <c r="AJ92" s="171"/>
       <c r="AK92" s="1"/>
     </row>
-    <row r="93" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="147">
         <v>81.5</v>
       </c>
@@ -54694,7 +54681,7 @@
       <c r="AJ93" s="171"/>
       <c r="AK93" s="1"/>
     </row>
-    <row r="94" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="147">
         <v>82.5</v>
       </c>
@@ -54747,7 +54734,7 @@
       <c r="AJ94" s="171"/>
       <c r="AK94" s="1"/>
     </row>
-    <row r="95" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="147">
         <v>83.5</v>
       </c>
@@ -54800,7 +54787,7 @@
       <c r="AJ95" s="171"/>
       <c r="AK95" s="1"/>
     </row>
-    <row r="96" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="147">
         <v>84.5</v>
       </c>
@@ -54853,7 +54840,7 @@
       <c r="AJ96" s="171"/>
       <c r="AK96" s="1"/>
     </row>
-    <row r="97" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="147">
         <v>85.5</v>
       </c>
@@ -54906,7 +54893,7 @@
       <c r="AJ97" s="171"/>
       <c r="AK97" s="1"/>
     </row>
-    <row r="98" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="147">
         <v>86.5</v>
       </c>
@@ -54959,7 +54946,7 @@
       <c r="AJ98" s="171"/>
       <c r="AK98" s="1"/>
     </row>
-    <row r="99" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="147">
         <v>87.5</v>
       </c>
@@ -55012,7 +54999,7 @@
       <c r="AJ99" s="171"/>
       <c r="AK99" s="1"/>
     </row>
-    <row r="100" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="147">
         <v>88.5</v>
       </c>
@@ -55065,7 +55052,7 @@
       <c r="AJ100" s="171"/>
       <c r="AK100" s="1"/>
     </row>
-    <row r="101" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="147">
         <v>89.5</v>
       </c>
@@ -55118,7 +55105,7 @@
       <c r="AJ101" s="171"/>
       <c r="AK101" s="1"/>
     </row>
-    <row r="102" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="147">
         <v>90.5</v>
       </c>
@@ -55171,7 +55158,7 @@
       <c r="AJ102" s="171"/>
       <c r="AK102" s="1"/>
     </row>
-    <row r="103" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="147">
         <v>91.5</v>
       </c>
@@ -55224,7 +55211,7 @@
       <c r="AJ103" s="171"/>
       <c r="AK103" s="1"/>
     </row>
-    <row r="104" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="147">
         <v>92.5</v>
       </c>
@@ -55277,7 +55264,7 @@
       <c r="AJ104" s="171"/>
       <c r="AK104" s="1"/>
     </row>
-    <row r="105" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="147">
         <v>93.5</v>
       </c>
@@ -55330,7 +55317,7 @@
       <c r="AJ105" s="171"/>
       <c r="AK105" s="1"/>
     </row>
-    <row r="106" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="147">
         <v>94.5</v>
       </c>
@@ -55383,7 +55370,7 @@
       <c r="AJ106" s="171"/>
       <c r="AK106" s="1"/>
     </row>
-    <row r="107" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="147">
         <v>95.5</v>
       </c>
@@ -55436,7 +55423,7 @@
       <c r="AJ107" s="171"/>
       <c r="AK107" s="1"/>
     </row>
-    <row r="108" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="148">
         <v>96.5</v>
       </c>
@@ -55489,7 +55476,7 @@
       <c r="AJ108" s="171"/>
       <c r="AK108" s="1"/>
     </row>
-    <row r="109" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="148">
         <v>97.5</v>
       </c>
@@ -55542,7 +55529,7 @@
       <c r="AJ109" s="171"/>
       <c r="AK109" s="1"/>
     </row>
-    <row r="110" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="148">
         <v>98.5</v>
       </c>
@@ -55595,7 +55582,7 @@
       <c r="AJ110" s="171"/>
       <c r="AK110" s="1"/>
     </row>
-    <row r="111" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="148">
         <v>99.5</v>
       </c>
@@ -55648,7 +55635,7 @@
       <c r="AJ111" s="171"/>
       <c r="AK111" s="1"/>
     </row>
-    <row r="112" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="148">
         <v>100.5</v>
       </c>
@@ -55701,7 +55688,7 @@
       <c r="AJ112" s="171"/>
       <c r="AK112" s="1"/>
     </row>
-    <row r="113" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="148">
         <v>101.5</v>
       </c>
@@ -55754,7 +55741,7 @@
       <c r="AJ113" s="171"/>
       <c r="AK113" s="1"/>
     </row>
-    <row r="114" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="148">
         <v>102.5</v>
       </c>
@@ -55807,7 +55794,7 @@
       <c r="AJ114" s="171"/>
       <c r="AK114" s="1"/>
     </row>
-    <row r="115" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="148">
         <v>103.5</v>
       </c>
@@ -55860,7 +55847,7 @@
       <c r="AJ115" s="171"/>
       <c r="AK115" s="1"/>
     </row>
-    <row r="116" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="148">
         <v>104.5</v>
       </c>
@@ -55913,7 +55900,7 @@
       <c r="AJ116" s="171"/>
       <c r="AK116" s="1"/>
     </row>
-    <row r="117" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="148">
         <v>105.5</v>
       </c>
@@ -55966,7 +55953,7 @@
       <c r="AJ117" s="171"/>
       <c r="AK117" s="1"/>
     </row>
-    <row r="118" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="148">
         <v>106.5</v>
       </c>
@@ -56019,7 +56006,7 @@
       <c r="AJ118" s="171"/>
       <c r="AK118" s="1"/>
     </row>
-    <row r="119" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="148">
         <v>107.5</v>
       </c>
@@ -56072,7 +56059,7 @@
       <c r="AJ119" s="171"/>
       <c r="AK119" s="1"/>
     </row>
-    <row r="120" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="148">
         <v>108.5</v>
       </c>
@@ -56125,7 +56112,7 @@
       <c r="AJ120" s="171"/>
       <c r="AK120" s="1"/>
     </row>
-    <row r="121" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="148">
         <v>109.5</v>
       </c>
@@ -56178,7 +56165,7 @@
       <c r="AJ121" s="171"/>
       <c r="AK121" s="1"/>
     </row>
-    <row r="122" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="148">
         <v>110.5</v>
       </c>
@@ -56231,7 +56218,7 @@
       <c r="AJ122" s="171"/>
       <c r="AK122" s="1"/>
     </row>
-    <row r="123" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="148">
         <v>111.5</v>
       </c>
@@ -56284,7 +56271,7 @@
       <c r="AJ123" s="171"/>
       <c r="AK123" s="1"/>
     </row>
-    <row r="124" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="148">
         <v>112.5</v>
       </c>
@@ -56337,7 +56324,7 @@
       <c r="AJ124" s="171"/>
       <c r="AK124" s="1"/>
     </row>
-    <row r="125" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="148">
         <v>113.5</v>
       </c>
@@ -56390,7 +56377,7 @@
       <c r="AJ125" s="171"/>
       <c r="AK125" s="1"/>
     </row>
-    <row r="126" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="148">
         <v>114.5</v>
       </c>
@@ -56443,7 +56430,7 @@
       <c r="AJ126" s="171"/>
       <c r="AK126" s="1"/>
     </row>
-    <row r="127" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="148">
         <v>115.5</v>
       </c>
@@ -56496,7 +56483,7 @@
       <c r="AJ127" s="171"/>
       <c r="AK127" s="1"/>
     </row>
-    <row r="128" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="148">
         <v>116.5</v>
       </c>
@@ -56549,7 +56536,7 @@
       <c r="AJ128" s="171"/>
       <c r="AK128" s="1"/>
     </row>
-    <row r="129" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="148">
         <v>117.5</v>
       </c>
@@ -56602,7 +56589,7 @@
       <c r="AJ129" s="171"/>
       <c r="AK129" s="1"/>
     </row>
-    <row r="130" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="148">
         <v>118.5</v>
       </c>
@@ -56655,7 +56642,7 @@
       <c r="AJ130" s="171"/>
       <c r="AK130" s="1"/>
     </row>
-    <row r="131" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="148">
         <v>119.5</v>
       </c>
@@ -56708,7 +56695,7 @@
       <c r="AJ131" s="171"/>
       <c r="AK131" s="1"/>
     </row>
-    <row r="132" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="147">
         <v>120.5</v>
       </c>
@@ -56761,7 +56748,7 @@
       <c r="AJ132" s="171"/>
       <c r="AK132" s="1"/>
     </row>
-    <row r="133" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="147">
         <v>121.5</v>
       </c>
@@ -56814,7 +56801,7 @@
       <c r="AJ133" s="171"/>
       <c r="AK133" s="1"/>
     </row>
-    <row r="134" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="147">
         <v>122.5</v>
       </c>
@@ -56867,7 +56854,7 @@
       <c r="AJ134" s="171"/>
       <c r="AK134" s="1"/>
     </row>
-    <row r="135" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="147">
         <v>123.5</v>
       </c>
@@ -56920,7 +56907,7 @@
       <c r="AJ135" s="171"/>
       <c r="AK135" s="1"/>
     </row>
-    <row r="136" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="147">
         <v>124.5</v>
       </c>
@@ -56973,7 +56960,7 @@
       <c r="AJ136" s="171"/>
       <c r="AK136" s="1"/>
     </row>
-    <row r="137" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="147">
         <v>125.5</v>
       </c>
@@ -57026,7 +57013,7 @@
       <c r="AJ137" s="171"/>
       <c r="AK137" s="1"/>
     </row>
-    <row r="138" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="147">
         <v>126.5</v>
       </c>
@@ -57079,7 +57066,7 @@
       <c r="AJ138" s="171"/>
       <c r="AK138" s="1"/>
     </row>
-    <row r="139" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="147">
         <v>127.5</v>
       </c>
@@ -57132,7 +57119,7 @@
       <c r="AJ139" s="171"/>
       <c r="AK139" s="1"/>
     </row>
-    <row r="140" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="147">
         <v>128.5</v>
       </c>
@@ -57185,7 +57172,7 @@
       <c r="AJ140" s="171"/>
       <c r="AK140" s="1"/>
     </row>
-    <row r="141" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="147">
         <v>129.5</v>
       </c>
@@ -57238,7 +57225,7 @@
       <c r="AJ141" s="171"/>
       <c r="AK141" s="1"/>
     </row>
-    <row r="142" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="147">
         <v>130.5</v>
       </c>
@@ -57291,7 +57278,7 @@
       <c r="AJ142" s="171"/>
       <c r="AK142" s="1"/>
     </row>
-    <row r="143" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="147">
         <v>131.5</v>
       </c>
@@ -57344,7 +57331,7 @@
       <c r="AJ143" s="171"/>
       <c r="AK143" s="1"/>
     </row>
-    <row r="144" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="147">
         <v>132.5</v>
       </c>
@@ -57397,7 +57384,7 @@
       <c r="AJ144" s="171"/>
       <c r="AK144" s="1"/>
     </row>
-    <row r="145" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="147">
         <v>133.5</v>
       </c>
@@ -57450,7 +57437,7 @@
       <c r="AJ145" s="171"/>
       <c r="AK145" s="1"/>
     </row>
-    <row r="146" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="147">
         <v>134.5</v>
       </c>
@@ -57503,7 +57490,7 @@
       <c r="AJ146" s="171"/>
       <c r="AK146" s="1"/>
     </row>
-    <row r="147" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="147">
         <v>135.5</v>
       </c>
@@ -57556,7 +57543,7 @@
       <c r="AJ147" s="171"/>
       <c r="AK147" s="1"/>
     </row>
-    <row r="148" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="147">
         <v>136.5</v>
       </c>
@@ -57609,7 +57596,7 @@
       <c r="AJ148" s="171"/>
       <c r="AK148" s="1"/>
     </row>
-    <row r="149" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A149" s="147">
         <v>137.5</v>
       </c>
@@ -57662,7 +57649,7 @@
       <c r="AJ149" s="171"/>
       <c r="AK149" s="1"/>
     </row>
-    <row r="150" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A150" s="147">
         <v>138.5</v>
       </c>
@@ -57715,7 +57702,7 @@
       <c r="AJ150" s="171"/>
       <c r="AK150" s="1"/>
     </row>
-    <row r="151" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A151" s="147">
         <v>139.5</v>
       </c>
@@ -57768,7 +57755,7 @@
       <c r="AJ151" s="171"/>
       <c r="AK151" s="1"/>
     </row>
-    <row r="152" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A152" s="147">
         <v>140.5</v>
       </c>
@@ -57821,7 +57808,7 @@
       <c r="AJ152" s="171"/>
       <c r="AK152" s="1"/>
     </row>
-    <row r="153" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A153" s="147">
         <v>141.5</v>
       </c>
@@ -57874,7 +57861,7 @@
       <c r="AJ153" s="171"/>
       <c r="AK153" s="1"/>
     </row>
-    <row r="154" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="147">
         <v>142.5</v>
       </c>
@@ -57927,7 +57914,7 @@
       <c r="AJ154" s="171"/>
       <c r="AK154" s="1"/>
     </row>
-    <row r="155" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A155" s="147">
         <v>143.5</v>
       </c>
@@ -57980,7 +57967,7 @@
       <c r="AJ155" s="171"/>
       <c r="AK155" s="1"/>
     </row>
-    <row r="156" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A156" s="148">
         <v>144.5</v>
       </c>
@@ -58033,7 +58020,7 @@
       <c r="AJ156" s="171"/>
       <c r="AK156" s="1"/>
     </row>
-    <row r="157" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A157" s="148">
         <v>145.5</v>
       </c>
@@ -58086,7 +58073,7 @@
       <c r="AJ157" s="171"/>
       <c r="AK157" s="1"/>
     </row>
-    <row r="158" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="148">
         <v>146.5</v>
       </c>
@@ -58139,7 +58126,7 @@
       <c r="AJ158" s="171"/>
       <c r="AK158" s="1"/>
     </row>
-    <row r="159" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A159" s="148">
         <v>147.5</v>
       </c>
@@ -58192,7 +58179,7 @@
       <c r="AJ159" s="171"/>
       <c r="AK159" s="1"/>
     </row>
-    <row r="160" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="148">
         <v>148.5</v>
       </c>
@@ -58245,7 +58232,7 @@
       <c r="AJ160" s="171"/>
       <c r="AK160" s="1"/>
     </row>
-    <row r="161" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A161" s="148">
         <v>149.5</v>
       </c>
@@ -58298,7 +58285,7 @@
       <c r="AJ161" s="171"/>
       <c r="AK161" s="1"/>
     </row>
-    <row r="162" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="148">
         <v>150.5</v>
       </c>
@@ -58351,7 +58338,7 @@
       <c r="AJ162" s="171"/>
       <c r="AK162" s="1"/>
     </row>
-    <row r="163" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A163" s="148">
         <v>151.5</v>
       </c>
@@ -58404,7 +58391,7 @@
       <c r="AJ163" s="171"/>
       <c r="AK163" s="1"/>
     </row>
-    <row r="164" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A164" s="148">
         <v>152.5</v>
       </c>
@@ -58457,7 +58444,7 @@
       <c r="AJ164" s="171"/>
       <c r="AK164" s="1"/>
     </row>
-    <row r="165" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A165" s="148">
         <v>153.5</v>
       </c>
@@ -58510,7 +58497,7 @@
       <c r="AJ165" s="171"/>
       <c r="AK165" s="1"/>
     </row>
-    <row r="166" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A166" s="148">
         <v>154.5</v>
       </c>
@@ -58563,7 +58550,7 @@
       <c r="AJ166" s="171"/>
       <c r="AK166" s="1"/>
     </row>
-    <row r="167" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A167" s="148">
         <v>155.5</v>
       </c>
@@ -58616,7 +58603,7 @@
       <c r="AJ167" s="171"/>
       <c r="AK167" s="1"/>
     </row>
-    <row r="168" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A168" s="148">
         <v>156.5</v>
       </c>
@@ -58669,7 +58656,7 @@
       <c r="AJ168" s="171"/>
       <c r="AK168" s="1"/>
     </row>
-    <row r="169" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A169" s="148">
         <v>157.5</v>
       </c>
@@ -58722,7 +58709,7 @@
       <c r="AJ169" s="171"/>
       <c r="AK169" s="1"/>
     </row>
-    <row r="170" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A170" s="148">
         <v>158.5</v>
       </c>
@@ -58775,7 +58762,7 @@
       <c r="AJ170" s="171"/>
       <c r="AK170" s="1"/>
     </row>
-    <row r="171" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="148">
         <v>159.5</v>
       </c>
@@ -58828,7 +58815,7 @@
       <c r="AJ171" s="171"/>
       <c r="AK171" s="1"/>
     </row>
-    <row r="172" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="148">
         <v>160.5</v>
       </c>
@@ -58881,7 +58868,7 @@
       <c r="AJ172" s="171"/>
       <c r="AK172" s="1"/>
     </row>
-    <row r="173" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A173" s="148">
         <v>161.5</v>
       </c>
@@ -58934,7 +58921,7 @@
       <c r="AJ173" s="171"/>
       <c r="AK173" s="1"/>
     </row>
-    <row r="174" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A174" s="148">
         <v>162.5</v>
       </c>
@@ -58987,7 +58974,7 @@
       <c r="AJ174" s="171"/>
       <c r="AK174" s="1"/>
     </row>
-    <row r="175" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A175" s="148">
         <v>163.5</v>
       </c>
@@ -59040,7 +59027,7 @@
       <c r="AJ175" s="171"/>
       <c r="AK175" s="1"/>
     </row>
-    <row r="176" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A176" s="148">
         <v>164.5</v>
       </c>
@@ -59093,7 +59080,7 @@
       <c r="AJ176" s="171"/>
       <c r="AK176" s="1"/>
     </row>
-    <row r="177" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A177" s="148">
         <v>165.5</v>
       </c>
@@ -59146,7 +59133,7 @@
       <c r="AJ177" s="171"/>
       <c r="AK177" s="1"/>
     </row>
-    <row r="178" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A178" s="148">
         <v>166.5</v>
       </c>
@@ -59199,7 +59186,7 @@
       <c r="AJ178" s="171"/>
       <c r="AK178" s="1"/>
     </row>
-    <row r="179" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A179" s="148">
         <v>167.5</v>
       </c>
@@ -59252,7 +59239,7 @@
       <c r="AJ179" s="171"/>
       <c r="AK179" s="1"/>
     </row>
-    <row r="180" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A180" s="147">
         <v>168.5</v>
       </c>
@@ -59305,7 +59292,7 @@
       <c r="AJ180" s="171"/>
       <c r="AK180" s="1"/>
     </row>
-    <row r="181" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A181" s="147">
         <v>169.5</v>
       </c>
@@ -59358,7 +59345,7 @@
       <c r="AJ181" s="171"/>
       <c r="AK181" s="1"/>
     </row>
-    <row r="182" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A182" s="147">
         <v>170.5</v>
       </c>
@@ -59411,7 +59398,7 @@
       <c r="AJ182" s="171"/>
       <c r="AK182" s="1"/>
     </row>
-    <row r="183" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A183" s="147">
         <v>171.5</v>
       </c>
@@ -59464,7 +59451,7 @@
       <c r="AJ183" s="171"/>
       <c r="AK183" s="1"/>
     </row>
-    <row r="184" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A184" s="147">
         <v>172.5</v>
       </c>
@@ -59517,7 +59504,7 @@
       <c r="AJ184" s="171"/>
       <c r="AK184" s="1"/>
     </row>
-    <row r="185" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A185" s="147">
         <v>173.5</v>
       </c>
@@ -59570,7 +59557,7 @@
       <c r="AJ185" s="171"/>
       <c r="AK185" s="1"/>
     </row>
-    <row r="186" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A186" s="147">
         <v>174.5</v>
       </c>
@@ -59623,7 +59610,7 @@
       <c r="AJ186" s="171"/>
       <c r="AK186" s="1"/>
     </row>
-    <row r="187" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A187" s="147">
         <v>175.5</v>
       </c>
@@ -59676,7 +59663,7 @@
       <c r="AJ187" s="171"/>
       <c r="AK187" s="1"/>
     </row>
-    <row r="188" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A188" s="147">
         <v>176.5</v>
       </c>
@@ -59729,7 +59716,7 @@
       <c r="AJ188" s="171"/>
       <c r="AK188" s="1"/>
     </row>
-    <row r="189" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A189" s="147">
         <v>177.5</v>
       </c>
@@ -59782,7 +59769,7 @@
       <c r="AJ189" s="171"/>
       <c r="AK189" s="1"/>
     </row>
-    <row r="190" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A190" s="147">
         <v>178.5</v>
       </c>
@@ -59835,7 +59822,7 @@
       <c r="AJ190" s="171"/>
       <c r="AK190" s="1"/>
     </row>
-    <row r="191" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A191" s="147">
         <v>179.5</v>
       </c>
@@ -59888,7 +59875,7 @@
       <c r="AJ191" s="171"/>
       <c r="AK191" s="1"/>
     </row>
-    <row r="192" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A192" s="147">
         <v>180.5</v>
       </c>
@@ -59941,7 +59928,7 @@
       <c r="AJ192" s="171"/>
       <c r="AK192" s="1"/>
     </row>
-    <row r="193" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A193" s="147">
         <v>181.5</v>
       </c>
@@ -59994,7 +59981,7 @@
       <c r="AJ193" s="171"/>
       <c r="AK193" s="1"/>
     </row>
-    <row r="194" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A194" s="147">
         <v>182.5</v>
       </c>
@@ -60047,7 +60034,7 @@
       <c r="AJ194" s="171"/>
       <c r="AK194" s="1"/>
     </row>
-    <row r="195" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A195" s="147">
         <v>183.5</v>
       </c>
@@ -60100,7 +60087,7 @@
       <c r="AJ195" s="171"/>
       <c r="AK195" s="1"/>
     </row>
-    <row r="196" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A196" s="147">
         <v>184.5</v>
       </c>
@@ -60153,7 +60140,7 @@
       <c r="AJ196" s="171"/>
       <c r="AK196" s="1"/>
     </row>
-    <row r="197" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A197" s="147">
         <v>185.5</v>
       </c>
@@ -60206,7 +60193,7 @@
       <c r="AJ197" s="171"/>
       <c r="AK197" s="1"/>
     </row>
-    <row r="198" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A198" s="147">
         <v>186.5</v>
       </c>
@@ -60259,7 +60246,7 @@
       <c r="AJ198" s="171"/>
       <c r="AK198" s="1"/>
     </row>
-    <row r="199" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A199" s="147">
         <v>187.5</v>
       </c>
@@ -60312,7 +60299,7 @@
       <c r="AJ199" s="171"/>
       <c r="AK199" s="1"/>
     </row>
-    <row r="200" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A200" s="147">
         <v>188.5</v>
       </c>
@@ -60365,7 +60352,7 @@
       <c r="AJ200" s="171"/>
       <c r="AK200" s="1"/>
     </row>
-    <row r="201" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A201" s="147">
         <v>189.5</v>
       </c>
@@ -60418,7 +60405,7 @@
       <c r="AJ201" s="171"/>
       <c r="AK201" s="1"/>
     </row>
-    <row r="202" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="147">
         <v>190.5</v>
       </c>
@@ -60471,7 +60458,7 @@
       <c r="AJ202" s="171"/>
       <c r="AK202" s="1"/>
     </row>
-    <row r="203" spans="1:37" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:37" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A203" s="149">
         <v>191.5</v>
       </c>
@@ -60524,7 +60511,7 @@
       <c r="AJ203" s="171"/>
       <c r="AK203" s="1"/>
     </row>
-    <row r="204" spans="1:37" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:37" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -60640,13 +60627,13 @@
                 <xdr:col>37</xdr:col>
                 <xdr:colOff>57150</xdr:colOff>
                 <xdr:row>9</xdr:row>
-                <xdr:rowOff>161925</xdr:rowOff>
+                <xdr:rowOff>165100</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>43</xdr:col>
                 <xdr:colOff>38100</xdr:colOff>
                 <xdr:row>11</xdr:row>
-                <xdr:rowOff>28575</xdr:rowOff>
+                <xdr:rowOff>31750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -60713,7 +60700,7 @@
             <anchor moveWithCells="1" sizeWithCells="1">
               <from>
                 <xdr:col>40</xdr:col>
-                <xdr:colOff>28575</xdr:colOff>
+                <xdr:colOff>31750</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
